--- a/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.195694495806972</v>
+        <v>1.090459797445682</v>
       </c>
       <c r="D3">
         <v>0.9589444804891296</v>
       </c>
       <c r="E3">
-        <v>1.090459797445682</v>
+        <v>0.9589444804891296</v>
       </c>
       <c r="F3">
         <v>1.195694495806972</v>
       </c>
       <c r="G3">
-        <v>0.9834888377945582</v>
+        <v>1.195694495806972</v>
       </c>
       <c r="H3">
         <v>0.9563149741740277</v>
       </c>
       <c r="I3">
+        <v>0.9834888377945582</v>
+      </c>
+      <c r="J3">
         <v>1.062887069016627</v>
-      </c>
-      <c r="J3">
-        <v>0.9589444804891296</v>
       </c>
       <c r="K3">
         <v>1.195694495806972</v>
@@ -676,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.425935003305045</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="D4">
         <v>0.9926561183632608</v>
       </c>
       <c r="E4">
-        <v>1.187189153562754</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="F4">
         <v>1.425935003305045</v>
       </c>
       <c r="G4">
-        <v>1.036918289223419</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="H4">
         <v>0.8893813698468173</v>
       </c>
       <c r="I4">
+        <v>1.036918289223419</v>
+      </c>
+      <c r="J4">
         <v>1.166803114073586</v>
-      </c>
-      <c r="J4">
-        <v>0.9926561183632608</v>
       </c>
       <c r="K4">
         <v>1.425935003305045</v>
@@ -738,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.089406385016801</v>
+        <v>1.365623119205356</v>
       </c>
       <c r="D5">
         <v>1.311130979447453</v>
       </c>
       <c r="E5">
-        <v>1.365623119205356</v>
+        <v>1.311130979447453</v>
       </c>
       <c r="F5">
         <v>2.089406385016801</v>
       </c>
       <c r="G5">
-        <v>1.3746283920511</v>
+        <v>2.089406385016801</v>
       </c>
       <c r="H5">
         <v>1.066396353861251</v>
       </c>
       <c r="I5">
+        <v>1.3746283920511</v>
+      </c>
+      <c r="J5">
         <v>1.558036478120017</v>
-      </c>
-      <c r="J5">
-        <v>1.311130979447453</v>
       </c>
       <c r="K5">
         <v>2.089406385016801</v>
@@ -800,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.614233723524627</v>
+        <v>3.371933643735313</v>
       </c>
       <c r="D6">
-        <v>0.4596626374693588</v>
+        <v>0.4596626374693587</v>
       </c>
       <c r="E6">
-        <v>3.371933643735313</v>
+        <v>0.4596626374693587</v>
       </c>
       <c r="F6">
         <v>3.614233723524627</v>
       </c>
       <c r="G6">
-        <v>1.5494007622245</v>
+        <v>3.614233723524627</v>
       </c>
       <c r="H6">
         <v>0.6652926147446658</v>
       </c>
       <c r="I6">
+        <v>1.5494007622245</v>
+      </c>
+      <c r="J6">
         <v>1.186095416756794</v>
-      </c>
-      <c r="J6">
-        <v>0.4596626374693588</v>
       </c>
       <c r="K6">
         <v>3.614233723524627</v>
@@ -862,55 +874,55 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9983322146650468</v>
+        <v>1.000704780332509</v>
       </c>
       <c r="D7">
-        <v>0.9981985436818351</v>
+        <v>0.9981985436818355</v>
       </c>
       <c r="E7">
-        <v>1.00070478033251</v>
+        <v>0.9981985436818355</v>
       </c>
       <c r="F7">
-        <v>0.9983322146650468</v>
+        <v>0.998332214665046</v>
       </c>
       <c r="G7">
+        <v>0.998332214665046</v>
+      </c>
+      <c r="H7">
+        <v>0.9985018298033749</v>
+      </c>
+      <c r="I7">
         <v>1.038183792748109</v>
       </c>
-      <c r="H7">
-        <v>0.9985018298033767</v>
-      </c>
-      <c r="I7">
-        <v>0.9989693591038422</v>
-      </c>
       <c r="J7">
-        <v>0.9981985436818351</v>
+        <v>0.9989693591038429</v>
       </c>
       <c r="K7">
-        <v>0.9983322146650468</v>
+        <v>0.998332214665046</v>
       </c>
       <c r="L7">
-        <v>1.00070478033251</v>
+        <v>1.000704780332509</v>
       </c>
       <c r="M7">
-        <v>0.9994516620071727</v>
+        <v>0.9994516620071724</v>
       </c>
       <c r="N7">
-        <v>0.9994516620071727</v>
+        <v>0.9994516620071724</v>
       </c>
       <c r="O7">
-        <v>0.9991350512725741</v>
+        <v>0.9991350512725732</v>
       </c>
       <c r="P7">
-        <v>0.9990785128931309</v>
+        <v>0.9990785128931302</v>
       </c>
       <c r="Q7">
-        <v>0.9990785128931309</v>
+        <v>0.9990785128931302</v>
       </c>
       <c r="R7">
-        <v>0.9988919383361099</v>
+        <v>0.9988919383361092</v>
       </c>
       <c r="S7">
-        <v>0.9988919383361099</v>
+        <v>0.9988919383361092</v>
       </c>
       <c r="T7">
         <v>1.00548175338912</v>
@@ -924,58 +936,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9962845031639352</v>
+        <v>1.008134368941625</v>
       </c>
       <c r="D8">
-        <v>0.9874692297861649</v>
+        <v>0.9874692297861644</v>
       </c>
       <c r="E8">
-        <v>1.008134368941626</v>
+        <v>0.9874692297861644</v>
       </c>
       <c r="F8">
-        <v>0.9962845031639352</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="G8">
-        <v>1.085218818984822</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="H8">
-        <v>0.9961863928747232</v>
+        <v>0.9961863928747223</v>
       </c>
       <c r="I8">
-        <v>0.9988090644825016</v>
+        <v>1.085218818984828</v>
       </c>
       <c r="J8">
-        <v>0.9874692297861649</v>
+        <v>0.9988090644825015</v>
       </c>
       <c r="K8">
-        <v>0.9962845031639352</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="L8">
-        <v>1.008134368941626</v>
+        <v>1.008134368941625</v>
       </c>
       <c r="M8">
-        <v>0.9978017993638956</v>
+        <v>0.9978017993638946</v>
       </c>
       <c r="N8">
-        <v>0.9978017993638956</v>
+        <v>0.9978017993638946</v>
       </c>
       <c r="O8">
-        <v>0.9972633305341715</v>
+        <v>0.9972633305341705</v>
       </c>
       <c r="P8">
-        <v>0.9972960339639089</v>
+        <v>0.9972960339639084</v>
       </c>
       <c r="Q8">
-        <v>0.9972960339639089</v>
+        <v>0.9972960339639084</v>
       </c>
       <c r="R8">
-        <v>0.9970431512639154</v>
+        <v>0.9970431512639153</v>
       </c>
       <c r="S8">
-        <v>0.9970431512639154</v>
+        <v>0.9970431512639153</v>
       </c>
       <c r="T8">
-        <v>1.012017063038962</v>
+        <v>1.012017063038963</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.035905172722504</v>
+        <v>1.038991344385248</v>
       </c>
       <c r="D9">
         <v>0.9922658520744719</v>
       </c>
       <c r="E9">
-        <v>1.038991344385248</v>
+        <v>0.9922658520744719</v>
       </c>
       <c r="F9">
         <v>1.035905172722504</v>
       </c>
       <c r="G9">
-        <v>1.089931895171772</v>
+        <v>1.035905172722504</v>
       </c>
       <c r="H9">
         <v>0.9919179221938944</v>
       </c>
       <c r="I9">
+        <v>1.089931895171772</v>
+      </c>
+      <c r="J9">
         <v>0.9935079900811358</v>
-      </c>
-      <c r="J9">
-        <v>0.9922658520744719</v>
       </c>
       <c r="K9">
         <v>1.035905172722504</v>
@@ -1025,7 +1037,7 @@
         <v>1.007725039551205</v>
       </c>
       <c r="P9">
-        <v>1.022387456394074</v>
+        <v>1.022387456394075</v>
       </c>
       <c r="Q9">
         <v>1.022387456394075</v>
@@ -1048,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.020264112909525</v>
+        <v>1.042868792650362</v>
       </c>
       <c r="D10">
         <v>0.9827367904557793</v>
       </c>
       <c r="E10">
-        <v>1.042868792650362</v>
+        <v>0.9827367904557793</v>
       </c>
       <c r="F10">
         <v>1.020264112909525</v>
       </c>
       <c r="G10">
-        <v>1.245704369071664</v>
+        <v>1.020264112909525</v>
       </c>
       <c r="H10">
         <v>0.9857095887742542</v>
       </c>
       <c r="I10">
+        <v>1.245704369071664</v>
+      </c>
+      <c r="J10">
         <v>1.001763040706066</v>
-      </c>
-      <c r="J10">
-        <v>0.9827367904557793</v>
       </c>
       <c r="K10">
         <v>1.020264112909525</v>
@@ -1110,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.121417939059363</v>
+        <v>1.190648929091592</v>
       </c>
       <c r="D11">
         <v>1.06271225156093</v>
       </c>
       <c r="E11">
-        <v>1.190648929091592</v>
+        <v>1.06271225156093</v>
       </c>
       <c r="F11">
         <v>1.121417939059363</v>
       </c>
       <c r="G11">
-        <v>1.300979289134874</v>
+        <v>1.121417939059363</v>
       </c>
       <c r="H11">
         <v>1.017071820501635</v>
       </c>
       <c r="I11">
-        <v>0.9400930473708152</v>
+        <v>1.300979289134874</v>
       </c>
       <c r="J11">
-        <v>1.06271225156093</v>
+        <v>0.940093047370815</v>
       </c>
       <c r="K11">
         <v>1.121417939059363</v>
@@ -1172,49 +1184,49 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.839099416743353</v>
+        <v>0.5353173396279407</v>
       </c>
       <c r="D12">
-        <v>0.2731877001756437</v>
+        <v>0.2731877001756435</v>
       </c>
       <c r="E12">
-        <v>0.5353173396279415</v>
+        <v>0.2731877001756435</v>
       </c>
       <c r="F12">
         <v>1.839099416743353</v>
       </c>
       <c r="G12">
-        <v>0.001005896292277911</v>
+        <v>1.839099416743353</v>
       </c>
       <c r="H12">
         <v>1.28050112250611</v>
       </c>
       <c r="I12">
+        <v>0.001005896292277912</v>
+      </c>
+      <c r="J12">
         <v>1.076101711066956</v>
-      </c>
-      <c r="J12">
-        <v>0.2731877001756437</v>
       </c>
       <c r="K12">
         <v>1.839099416743353</v>
       </c>
       <c r="L12">
-        <v>0.5353173396279415</v>
+        <v>0.5353173396279407</v>
       </c>
       <c r="M12">
-        <v>0.4042525199017926</v>
+        <v>0.4042525199017921</v>
       </c>
       <c r="N12">
-        <v>0.4042525199017926</v>
+        <v>0.4042525199017921</v>
       </c>
       <c r="O12">
-        <v>0.696335387436565</v>
+        <v>0.6963353874365646</v>
       </c>
       <c r="P12">
-        <v>0.8825348188489794</v>
+        <v>0.8825348188489791</v>
       </c>
       <c r="Q12">
-        <v>0.8825348188489793</v>
+        <v>0.8825348188489791</v>
       </c>
       <c r="R12">
         <v>1.121675968322573</v>
@@ -1223,7 +1235,7 @@
         <v>1.121675968322573</v>
       </c>
       <c r="T12">
-        <v>0.8342021977353804</v>
+        <v>0.8342021977353801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996281589042395</v>
+        <v>1.255728795392275</v>
       </c>
       <c r="D13">
-        <v>1.598615370252648</v>
+        <v>1.598615370252646</v>
       </c>
       <c r="E13">
-        <v>1.255728795392275</v>
+        <v>1.598615370252646</v>
       </c>
       <c r="F13">
-        <v>0.9996281589042395</v>
+        <v>0.9996281589042396</v>
       </c>
       <c r="G13">
-        <v>0.415835481064135</v>
+        <v>0.9996281589042396</v>
       </c>
       <c r="H13">
-        <v>0.6970805916650492</v>
+        <v>0.6970805916650487</v>
       </c>
       <c r="I13">
+        <v>0.4158354810641348</v>
+      </c>
+      <c r="J13">
         <v>1.063608608492982</v>
       </c>
-      <c r="J13">
-        <v>1.598615370252648</v>
-      </c>
       <c r="K13">
-        <v>0.9996281589042395</v>
+        <v>0.9996281589042396</v>
       </c>
       <c r="L13">
         <v>1.255728795392275</v>
@@ -1296,58 +1308,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.824526065424648</v>
+        <v>0.3279806751991264</v>
       </c>
       <c r="D14">
-        <v>0.009564223208535162</v>
+        <v>0.009564223208535151</v>
       </c>
       <c r="E14">
-        <v>0.3279806751991266</v>
+        <v>0.009564223208535151</v>
       </c>
       <c r="F14">
-        <v>1.824526065424648</v>
+        <v>1.824526065424647</v>
       </c>
       <c r="G14">
-        <v>0.00095833269074967</v>
+        <v>1.824526065424647</v>
       </c>
       <c r="H14">
         <v>2.033072525764183</v>
       </c>
       <c r="I14">
+        <v>0.0009583326907496712</v>
+      </c>
+      <c r="J14">
         <v>1.123644033566309</v>
       </c>
-      <c r="J14">
-        <v>0.009564223208535162</v>
-      </c>
       <c r="K14">
-        <v>1.824526065424648</v>
+        <v>1.824526065424647</v>
       </c>
       <c r="L14">
-        <v>0.3279806751991266</v>
+        <v>0.3279806751991264</v>
       </c>
       <c r="M14">
-        <v>0.1687724492038309</v>
+        <v>0.1687724492038308</v>
       </c>
       <c r="N14">
-        <v>0.1687724492038309</v>
+        <v>0.1687724492038308</v>
       </c>
       <c r="O14">
         <v>0.7902058080572815</v>
       </c>
       <c r="P14">
-        <v>0.7206903212774368</v>
+        <v>0.7206903212774362</v>
       </c>
       <c r="Q14">
-        <v>0.7206903212774368</v>
+        <v>0.7206903212774362</v>
       </c>
       <c r="R14">
-        <v>0.9966492573142397</v>
+        <v>0.9966492573142389</v>
       </c>
       <c r="S14">
-        <v>0.9966492573142397</v>
+        <v>0.9966492573142389</v>
       </c>
       <c r="T14">
-        <v>0.8866243093089253</v>
+        <v>0.886624309308925</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3692450097986275</v>
+        <v>1.365474223309173</v>
       </c>
       <c r="D15">
         <v>3.037575828329734</v>
       </c>
       <c r="E15">
-        <v>1.365474223309173</v>
+        <v>3.037575828329734</v>
       </c>
       <c r="F15">
-        <v>0.3692450097986275</v>
+        <v>0.3692450097986277</v>
       </c>
       <c r="G15">
-        <v>0.3699524454777166</v>
+        <v>0.3692450097986277</v>
       </c>
       <c r="H15">
         <v>0.5177535224561548</v>
       </c>
       <c r="I15">
-        <v>0.9633165888619177</v>
+        <v>0.3699524454777166</v>
       </c>
       <c r="J15">
-        <v>3.037575828329734</v>
+        <v>0.9633165888619176</v>
       </c>
       <c r="K15">
-        <v>0.3692450097986275</v>
+        <v>0.3692450097986277</v>
       </c>
       <c r="L15">
         <v>1.365474223309173</v>
@@ -1397,7 +1409,7 @@
         <v>1.640267858031687</v>
       </c>
       <c r="P15">
-        <v>1.590765020479178</v>
+        <v>1.590765020479179</v>
       </c>
       <c r="Q15">
         <v>1.590765020479179</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.040770170420817</v>
+        <v>2.277720113824706</v>
       </c>
       <c r="D16">
-        <v>1.005819428960362</v>
+        <v>0.1936853043786913</v>
       </c>
       <c r="E16">
-        <v>0.9852166044461749</v>
+        <v>0.1936853043786913</v>
       </c>
       <c r="F16">
-        <v>1.040770170420817</v>
+        <v>4.268185151312361</v>
       </c>
       <c r="G16">
-        <v>1.030950056982326</v>
+        <v>4.268185151312361</v>
       </c>
       <c r="H16">
-        <v>1.001336815184199</v>
+        <v>0.2014960176882482</v>
       </c>
       <c r="I16">
-        <v>0.9830182247310965</v>
+        <v>0.8107506920500289</v>
       </c>
       <c r="J16">
-        <v>1.005819428960362</v>
+        <v>2.265066398188963</v>
       </c>
       <c r="K16">
-        <v>1.040770170420817</v>
+        <v>4.268185151312361</v>
       </c>
       <c r="L16">
-        <v>0.9852166044461749</v>
+        <v>2.277720113824706</v>
       </c>
       <c r="M16">
-        <v>0.9955180167032682</v>
+        <v>1.235702709101699</v>
       </c>
       <c r="N16">
-        <v>0.9955180167032682</v>
+        <v>1.235702709101699</v>
       </c>
       <c r="O16">
-        <v>0.9974576161969119</v>
+        <v>0.8909671452972153</v>
       </c>
       <c r="P16">
-        <v>1.010602067942451</v>
+        <v>2.246530189838586</v>
       </c>
       <c r="Q16">
-        <v>1.010602067942451</v>
+        <v>2.246530189838586</v>
       </c>
       <c r="R16">
-        <v>1.018144093562042</v>
+        <v>2.75194393020703</v>
       </c>
       <c r="S16">
-        <v>1.018144093562042</v>
+        <v>2.75194393020703</v>
       </c>
       <c r="T16">
-        <v>1.007851883454162</v>
+        <v>1.6694839462405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8986392809310526</v>
+        <v>1.861592372229571</v>
       </c>
       <c r="D17">
-        <v>1.023588681706442</v>
+        <v>0.3882083850965412</v>
       </c>
       <c r="E17">
-        <v>1.028968515598283</v>
+        <v>0.3882083850965412</v>
       </c>
       <c r="F17">
-        <v>0.8986392809310526</v>
+        <v>3.141420693983876</v>
       </c>
       <c r="G17">
-        <v>1.043588727727399</v>
+        <v>3.141420693983876</v>
       </c>
       <c r="H17">
-        <v>0.9954442626852542</v>
+        <v>0.4028971607460876</v>
       </c>
       <c r="I17">
-        <v>1.006814243809743</v>
+        <v>1.644748429279206</v>
       </c>
       <c r="J17">
-        <v>1.023588681706442</v>
+        <v>1.831173321574024</v>
       </c>
       <c r="K17">
-        <v>0.8986392809310526</v>
+        <v>3.141420693983876</v>
       </c>
       <c r="L17">
-        <v>1.028968515598283</v>
+        <v>1.861592372229571</v>
       </c>
       <c r="M17">
-        <v>1.026278598652362</v>
+        <v>1.124900378663056</v>
       </c>
       <c r="N17">
-        <v>1.026278598652362</v>
+        <v>1.124900378663056</v>
       </c>
       <c r="O17">
-        <v>1.016000486663326</v>
+        <v>0.8842326393573998</v>
       </c>
       <c r="P17">
-        <v>0.9837321594119258</v>
+        <v>1.797073817103329</v>
       </c>
       <c r="Q17">
-        <v>0.9837321594119258</v>
+        <v>1.797073817103329</v>
       </c>
       <c r="R17">
-        <v>0.9624589397917076</v>
+        <v>2.133160536323466</v>
       </c>
       <c r="S17">
-        <v>0.9624589397917076</v>
+        <v>2.133160536323466</v>
       </c>
       <c r="T17">
-        <v>0.9995072854096957</v>
+        <v>1.545006727151551</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.132095149278218</v>
+        <v>1.057641406504508</v>
       </c>
       <c r="D18">
-        <v>1.013992582930869</v>
+        <v>0.7844286441064514</v>
       </c>
       <c r="E18">
-        <v>1.129856857140445</v>
+        <v>0.7844286441064514</v>
       </c>
       <c r="F18">
-        <v>1.132095149278218</v>
+        <v>0.9159749730332184</v>
       </c>
       <c r="G18">
-        <v>1.105703021968856</v>
+        <v>0.9159749730332184</v>
       </c>
       <c r="H18">
-        <v>1.005417117628825</v>
+        <v>0.7964076982507109</v>
       </c>
       <c r="I18">
-        <v>0.8755126018880912</v>
+        <v>3.266650108276994</v>
       </c>
       <c r="J18">
-        <v>1.013992582930869</v>
+        <v>0.971301215878813</v>
       </c>
       <c r="K18">
-        <v>1.132095149278218</v>
+        <v>0.9159749730332184</v>
       </c>
       <c r="L18">
-        <v>1.129856857140445</v>
+        <v>1.057641406504508</v>
       </c>
       <c r="M18">
-        <v>1.071924720035657</v>
+        <v>0.9210350253054798</v>
       </c>
       <c r="N18">
-        <v>1.071924720035657</v>
+        <v>0.9210350253054798</v>
       </c>
       <c r="O18">
-        <v>1.04975551923338</v>
+        <v>0.8794925829538901</v>
       </c>
       <c r="P18">
-        <v>1.091981529783177</v>
+        <v>0.919348341214726</v>
       </c>
       <c r="Q18">
-        <v>1.091981529783177</v>
+        <v>0.919348341214726</v>
       </c>
       <c r="R18">
-        <v>1.102009934656937</v>
+        <v>0.918504999169349</v>
       </c>
       <c r="S18">
-        <v>1.102009934656937</v>
+        <v>0.918504999169349</v>
       </c>
       <c r="T18">
-        <v>1.043762888472551</v>
+        <v>1.298734007675116</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9259027058273253</v>
+      </c>
+      <c r="D19">
+        <v>1.253348693422193</v>
+      </c>
+      <c r="E19">
+        <v>1.253348693422193</v>
+      </c>
+      <c r="F19">
+        <v>0.8391773157330473</v>
+      </c>
+      <c r="G19">
+        <v>0.8391773157330473</v>
+      </c>
+      <c r="H19">
+        <v>0.7119675000022988</v>
+      </c>
+      <c r="I19">
+        <v>4.174015488718463</v>
+      </c>
+      <c r="J19">
+        <v>0.9680450907003606</v>
+      </c>
+      <c r="K19">
+        <v>0.8391773157330473</v>
+      </c>
+      <c r="L19">
+        <v>0.9259027058273253</v>
+      </c>
+      <c r="M19">
+        <v>1.089625699624759</v>
+      </c>
+      <c r="N19">
+        <v>1.089625699624759</v>
+      </c>
+      <c r="O19">
+        <v>0.9637396330839391</v>
+      </c>
+      <c r="P19">
+        <v>1.006142904994189</v>
+      </c>
+      <c r="Q19">
+        <v>1.006142904994189</v>
+      </c>
+      <c r="R19">
+        <v>0.9644015076789032</v>
+      </c>
+      <c r="S19">
+        <v>0.9644015076789032</v>
+      </c>
+      <c r="T19">
+        <v>1.478742799067281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.985216604446176</v>
+      </c>
+      <c r="D20">
+        <v>1.005819428960362</v>
+      </c>
+      <c r="E20">
+        <v>1.005819428960362</v>
+      </c>
+      <c r="F20">
+        <v>1.040770170420817</v>
+      </c>
+      <c r="G20">
+        <v>1.040770170420817</v>
+      </c>
+      <c r="H20">
+        <v>1.0013368151842</v>
+      </c>
+      <c r="I20">
+        <v>1.030950056982325</v>
+      </c>
+      <c r="J20">
+        <v>0.9830182247310975</v>
+      </c>
+      <c r="K20">
+        <v>1.040770170420817</v>
+      </c>
+      <c r="L20">
+        <v>0.985216604446176</v>
+      </c>
+      <c r="M20">
+        <v>0.9955180167032689</v>
+      </c>
+      <c r="N20">
+        <v>0.9955180167032689</v>
+      </c>
+      <c r="O20">
+        <v>0.9974576161969128</v>
+      </c>
+      <c r="P20">
+        <v>1.010602067942452</v>
+      </c>
+      <c r="Q20">
+        <v>1.010602067942452</v>
+      </c>
+      <c r="R20">
+        <v>1.018144093562043</v>
+      </c>
+      <c r="S20">
+        <v>1.018144093562043</v>
+      </c>
+      <c r="T20">
+        <v>1.007851883454163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.028968515598282</v>
+      </c>
+      <c r="D21">
+        <v>1.023588681706443</v>
+      </c>
+      <c r="E21">
+        <v>1.023588681706443</v>
+      </c>
+      <c r="F21">
+        <v>0.8986392809310543</v>
+      </c>
+      <c r="G21">
+        <v>0.8986392809310543</v>
+      </c>
+      <c r="H21">
+        <v>0.9954442626852554</v>
+      </c>
+      <c r="I21">
+        <v>1.043588727727399</v>
+      </c>
+      <c r="J21">
+        <v>1.006814243809744</v>
+      </c>
+      <c r="K21">
+        <v>0.8986392809310543</v>
+      </c>
+      <c r="L21">
+        <v>1.028968515598282</v>
+      </c>
+      <c r="M21">
+        <v>1.026278598652362</v>
+      </c>
+      <c r="N21">
+        <v>1.026278598652362</v>
+      </c>
+      <c r="O21">
+        <v>1.016000486663327</v>
+      </c>
+      <c r="P21">
+        <v>0.9837321594119263</v>
+      </c>
+      <c r="Q21">
+        <v>0.9837321594119265</v>
+      </c>
+      <c r="R21">
+        <v>0.9624589397917084</v>
+      </c>
+      <c r="S21">
+        <v>0.9624589397917084</v>
+      </c>
+      <c r="T21">
+        <v>0.9995072854096961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.129856857140447</v>
+      </c>
+      <c r="D22">
+        <v>1.013992582930868</v>
+      </c>
+      <c r="E22">
+        <v>1.013992582930868</v>
+      </c>
+      <c r="F22">
+        <v>1.132095149278222</v>
+      </c>
+      <c r="G22">
+        <v>1.132095149278222</v>
+      </c>
+      <c r="H22">
+        <v>1.005417117628825</v>
+      </c>
+      <c r="I22">
+        <v>1.105703021968857</v>
+      </c>
+      <c r="J22">
+        <v>0.8755126018880922</v>
+      </c>
+      <c r="K22">
+        <v>1.132095149278222</v>
+      </c>
+      <c r="L22">
+        <v>1.129856857140447</v>
+      </c>
+      <c r="M22">
+        <v>1.071924720035658</v>
+      </c>
+      <c r="N22">
+        <v>1.071924720035658</v>
+      </c>
+      <c r="O22">
+        <v>1.04975551923338</v>
+      </c>
+      <c r="P22">
+        <v>1.091981529783179</v>
+      </c>
+      <c r="Q22">
+        <v>1.091981529783179</v>
+      </c>
+      <c r="R22">
+        <v>1.10200993465694</v>
+      </c>
+      <c r="S22">
+        <v>1.10200993465694</v>
+      </c>
+      <c r="T22">
+        <v>1.043762888472552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.804012626153218</v>
+      </c>
+      <c r="D23">
+        <v>0.7911919769185698</v>
+      </c>
+      <c r="E23">
+        <v>0.7911919769185698</v>
+      </c>
+      <c r="F23">
         <v>1.581520835163285</v>
       </c>
-      <c r="D19">
-        <v>0.7911919769185698</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.581520835163285</v>
+      </c>
+      <c r="H23">
+        <v>1.110890079203579</v>
+      </c>
+      <c r="I23">
+        <v>0.9692268336270797</v>
+      </c>
+      <c r="J23">
+        <v>1.020486115468406</v>
+      </c>
+      <c r="K23">
+        <v>1.581520835163285</v>
+      </c>
+      <c r="L23">
         <v>0.804012626153218</v>
       </c>
-      <c r="F19">
-        <v>1.581520835163285</v>
-      </c>
-      <c r="G19">
-        <v>0.9692268336270797</v>
-      </c>
-      <c r="H19">
-        <v>1.110890079203579</v>
-      </c>
-      <c r="I19">
-        <v>1.020486115468406</v>
-      </c>
-      <c r="J19">
-        <v>0.7911919769185698</v>
-      </c>
-      <c r="K19">
-        <v>1.581520835163285</v>
-      </c>
-      <c r="L19">
-        <v>0.804012626153218</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.797602301535894</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.797602301535894</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9020315607584557</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.058908479411691</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.058908479411691</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.189561568349589</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.189561568349589</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.046221411089023</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.090459797445682</v>
+        <v>1.044529099493631</v>
       </c>
       <c r="D3">
-        <v>0.9589444804891296</v>
+        <v>0.7778852317840375</v>
       </c>
       <c r="E3">
-        <v>0.9589444804891296</v>
+        <v>0.7778852317840375</v>
       </c>
       <c r="F3">
-        <v>1.195694495806972</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="G3">
-        <v>1.195694495806972</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="H3">
-        <v>0.9563149741740277</v>
+        <v>0.7582973271237857</v>
       </c>
       <c r="I3">
-        <v>0.9834888377945582</v>
+        <v>4.293263378292326</v>
       </c>
       <c r="J3">
-        <v>1.062887069016627</v>
+        <v>0.9685679162268007</v>
       </c>
       <c r="K3">
-        <v>1.195694495806972</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="L3">
-        <v>1.090459797445682</v>
+        <v>1.044529099493631</v>
       </c>
       <c r="M3">
-        <v>1.024702138967406</v>
+        <v>0.9112071656388342</v>
       </c>
       <c r="N3">
-        <v>1.024702138967406</v>
+        <v>0.9112071656388342</v>
       </c>
       <c r="O3">
-        <v>1.001906417369613</v>
+        <v>0.8602372194671514</v>
       </c>
       <c r="P3">
-        <v>1.081699591247261</v>
+        <v>0.9342337319183714</v>
       </c>
       <c r="Q3">
-        <v>1.081699591247261</v>
+        <v>0.9342337319183714</v>
       </c>
       <c r="R3">
-        <v>1.110198317387189</v>
+        <v>0.9457470150581401</v>
       </c>
       <c r="S3">
-        <v>1.110198317387189</v>
+        <v>0.9457470150581401</v>
       </c>
       <c r="T3">
-        <v>1.041298275787833</v>
+        <v>1.470471636233005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.187189153562754</v>
+        <v>1.028128573837436</v>
       </c>
       <c r="D4">
-        <v>0.9926561183632608</v>
+        <v>0.7806521947673069</v>
       </c>
       <c r="E4">
-        <v>0.9926561183632608</v>
+        <v>0.7806521947673069</v>
       </c>
       <c r="F4">
-        <v>1.425935003305045</v>
+        <v>0.9298683203329697</v>
       </c>
       <c r="G4">
-        <v>1.425935003305045</v>
+        <v>0.9298683203329697</v>
       </c>
       <c r="H4">
-        <v>0.8893813698468173</v>
+        <v>0.7843890435391173</v>
       </c>
       <c r="I4">
-        <v>1.036918289223419</v>
+        <v>3.756286023672442</v>
       </c>
       <c r="J4">
-        <v>1.166803114073586</v>
+        <v>0.9649610603210382</v>
       </c>
       <c r="K4">
-        <v>1.425935003305045</v>
+        <v>0.9298683203329697</v>
       </c>
       <c r="L4">
-        <v>1.187189153562754</v>
+        <v>1.028128573837436</v>
       </c>
       <c r="M4">
-        <v>1.089922635963008</v>
+        <v>0.9043903843023716</v>
       </c>
       <c r="N4">
-        <v>1.089922635963008</v>
+        <v>0.9043903843023716</v>
       </c>
       <c r="O4">
-        <v>1.023075547257611</v>
+        <v>0.8643899373812869</v>
       </c>
       <c r="P4">
-        <v>1.201926758410353</v>
+        <v>0.9128830296459043</v>
       </c>
       <c r="Q4">
-        <v>1.201926758410353</v>
+        <v>0.9128830296459043</v>
       </c>
       <c r="R4">
-        <v>1.257928819634026</v>
+        <v>0.9171293523176707</v>
       </c>
       <c r="S4">
-        <v>1.257928819634026</v>
+        <v>0.9171293523176707</v>
       </c>
       <c r="T4">
-        <v>1.11648050806248</v>
+        <v>1.374047536078385</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.365623119205356</v>
+        <v>1.137011137761697</v>
       </c>
       <c r="D5">
-        <v>1.311130979447453</v>
+        <v>0.7364357365988359</v>
       </c>
       <c r="E5">
-        <v>1.311130979447453</v>
+        <v>0.7364357365988359</v>
       </c>
       <c r="F5">
-        <v>2.089406385016801</v>
+        <v>1.086582167486269</v>
       </c>
       <c r="G5">
-        <v>2.089406385016801</v>
+        <v>1.086582167486269</v>
       </c>
       <c r="H5">
-        <v>1.066396353861251</v>
+        <v>0.7062005034257816</v>
       </c>
       <c r="I5">
-        <v>1.3746283920511</v>
+        <v>5.5035650035393</v>
       </c>
       <c r="J5">
-        <v>1.558036478120017</v>
+        <v>1.005525994860647</v>
       </c>
       <c r="K5">
-        <v>2.089406385016801</v>
+        <v>1.086582167486269</v>
       </c>
       <c r="L5">
-        <v>1.365623119205356</v>
+        <v>1.137011137761697</v>
       </c>
       <c r="M5">
-        <v>1.338377049326405</v>
+        <v>0.9367234371802665</v>
       </c>
       <c r="N5">
-        <v>1.338377049326405</v>
+        <v>0.9367234371802665</v>
       </c>
       <c r="O5">
-        <v>1.247716817504687</v>
+        <v>0.8598824592621049</v>
       </c>
       <c r="P5">
-        <v>1.588720161223203</v>
+        <v>0.9866763472822674</v>
       </c>
       <c r="Q5">
-        <v>1.588720161223203</v>
+        <v>0.9866763472822674</v>
       </c>
       <c r="R5">
-        <v>1.713891717171603</v>
+        <v>1.011652802333268</v>
       </c>
       <c r="S5">
-        <v>1.713891717171603</v>
+        <v>1.011652802333268</v>
       </c>
       <c r="T5">
-        <v>1.460870284616997</v>
+        <v>1.695886757278755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.371933643735313</v>
+        <v>1.389430348143659</v>
       </c>
       <c r="D6">
-        <v>0.4596626374693587</v>
+        <v>0.6653911501475909</v>
       </c>
       <c r="E6">
-        <v>0.4596626374693587</v>
+        <v>0.6653911501475909</v>
       </c>
       <c r="F6">
-        <v>3.614233723524627</v>
+        <v>1.451673914205284</v>
       </c>
       <c r="G6">
-        <v>3.614233723524627</v>
+        <v>1.451673914205284</v>
       </c>
       <c r="H6">
-        <v>0.6652926147446658</v>
+        <v>0.7073174789251132</v>
       </c>
       <c r="I6">
-        <v>1.5494007622245</v>
+        <v>7.309247239678863</v>
       </c>
       <c r="J6">
-        <v>1.186095416756794</v>
+        <v>0.7861303284880681</v>
       </c>
       <c r="K6">
-        <v>3.614233723524627</v>
+        <v>1.451673914205284</v>
       </c>
       <c r="L6">
-        <v>3.371933643735313</v>
+        <v>1.389430348143659</v>
       </c>
       <c r="M6">
-        <v>1.915798140602336</v>
+        <v>1.027410749145625</v>
       </c>
       <c r="N6">
-        <v>1.915798140602336</v>
+        <v>1.027410749145625</v>
       </c>
       <c r="O6">
-        <v>1.498962965316446</v>
+        <v>0.9207129924054542</v>
       </c>
       <c r="P6">
-        <v>2.481943334909766</v>
+        <v>1.168831804165511</v>
       </c>
       <c r="Q6">
-        <v>2.481943334909766</v>
+        <v>1.168831804165511</v>
       </c>
       <c r="R6">
-        <v>2.765015932063482</v>
+        <v>1.239542331675455</v>
       </c>
       <c r="S6">
-        <v>2.765015932063482</v>
+        <v>1.239542331675455</v>
       </c>
       <c r="T6">
-        <v>1.807769799742543</v>
+        <v>2.051531743264763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000704780332509</v>
+        <v>1.930474979644605</v>
       </c>
       <c r="D7">
-        <v>0.9981985436818355</v>
+        <v>3.788393059050199</v>
       </c>
       <c r="E7">
-        <v>0.9981985436818355</v>
+        <v>3.788393059050199</v>
       </c>
       <c r="F7">
-        <v>0.998332214665046</v>
+        <v>1.893830679963671</v>
       </c>
       <c r="G7">
-        <v>0.998332214665046</v>
+        <v>1.893830679963671</v>
       </c>
       <c r="H7">
-        <v>0.9985018298033749</v>
+        <v>0.03567303396601847</v>
       </c>
       <c r="I7">
-        <v>1.038183792748109</v>
+        <v>3.801926400803297</v>
       </c>
       <c r="J7">
-        <v>0.9989693591038429</v>
+        <v>0.1424128697491341</v>
       </c>
       <c r="K7">
-        <v>0.998332214665046</v>
+        <v>1.893830679963671</v>
       </c>
       <c r="L7">
-        <v>1.000704780332509</v>
+        <v>1.930474979644605</v>
       </c>
       <c r="M7">
-        <v>0.9994516620071724</v>
+        <v>2.859434019347402</v>
       </c>
       <c r="N7">
-        <v>0.9994516620071724</v>
+        <v>2.859434019347402</v>
       </c>
       <c r="O7">
-        <v>0.9991350512725732</v>
+        <v>1.918180357553607</v>
       </c>
       <c r="P7">
-        <v>0.9990785128931302</v>
+        <v>2.537566239552825</v>
       </c>
       <c r="Q7">
-        <v>0.9990785128931302</v>
+        <v>2.537566239552825</v>
       </c>
       <c r="R7">
-        <v>0.9988919383361092</v>
+        <v>2.376632349655536</v>
       </c>
       <c r="S7">
-        <v>0.9988919383361092</v>
+        <v>2.376632349655536</v>
       </c>
       <c r="T7">
-        <v>1.00548175338912</v>
+        <v>1.932118503862821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.008134368941625</v>
+        <v>1.946201263933978</v>
       </c>
       <c r="D8">
-        <v>0.9874692297861644</v>
+        <v>3.769077610236998</v>
       </c>
       <c r="E8">
-        <v>0.9874692297861644</v>
+        <v>3.769077610236998</v>
       </c>
       <c r="F8">
-        <v>0.9962845031639359</v>
+        <v>1.882590041464107</v>
       </c>
       <c r="G8">
-        <v>0.9962845031639359</v>
+        <v>1.882590041464107</v>
       </c>
       <c r="H8">
-        <v>0.9961863928747223</v>
+        <v>0.03548979216606776</v>
       </c>
       <c r="I8">
-        <v>1.085218818984828</v>
+        <v>3.919570077975332</v>
       </c>
       <c r="J8">
-        <v>0.9988090644825015</v>
+        <v>0.1425334601701432</v>
       </c>
       <c r="K8">
-        <v>0.9962845031639359</v>
+        <v>1.882590041464107</v>
       </c>
       <c r="L8">
-        <v>1.008134368941625</v>
+        <v>1.946201263933978</v>
       </c>
       <c r="M8">
-        <v>0.9978017993638946</v>
+        <v>2.857639437085489</v>
       </c>
       <c r="N8">
-        <v>0.9978017993638946</v>
+        <v>2.857639437085489</v>
       </c>
       <c r="O8">
-        <v>0.9972633305341705</v>
+        <v>1.916922888779015</v>
       </c>
       <c r="P8">
-        <v>0.9972960339639084</v>
+        <v>2.532622971878361</v>
       </c>
       <c r="Q8">
-        <v>0.9972960339639084</v>
+        <v>2.532622971878361</v>
       </c>
       <c r="R8">
-        <v>0.9970431512639153</v>
+        <v>2.370114739274797</v>
       </c>
       <c r="S8">
-        <v>0.9970431512639153</v>
+        <v>2.370114739274797</v>
       </c>
       <c r="T8">
-        <v>1.012017063038963</v>
+        <v>1.949243707657771</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.038991344385248</v>
+        <v>1.9388911614732</v>
       </c>
       <c r="D9">
-        <v>0.9922658520744719</v>
+        <v>3.758163453162775</v>
       </c>
       <c r="E9">
-        <v>0.9922658520744719</v>
+        <v>3.758163453162775</v>
       </c>
       <c r="F9">
-        <v>1.035905172722504</v>
+        <v>1.873893591768316</v>
       </c>
       <c r="G9">
-        <v>1.035905172722504</v>
+        <v>1.873893591768316</v>
       </c>
       <c r="H9">
-        <v>0.9919179221938944</v>
+        <v>0.03537819484052195</v>
       </c>
       <c r="I9">
-        <v>1.089931895171772</v>
+        <v>4.093227482153304</v>
       </c>
       <c r="J9">
-        <v>0.9935079900811358</v>
+        <v>0.1418111643049762</v>
       </c>
       <c r="K9">
-        <v>1.035905172722504</v>
+        <v>1.873893591768316</v>
       </c>
       <c r="L9">
-        <v>1.038991344385248</v>
+        <v>1.9388911614732</v>
       </c>
       <c r="M9">
-        <v>1.01562859822986</v>
+        <v>2.848527307317988</v>
       </c>
       <c r="N9">
-        <v>1.01562859822986</v>
+        <v>2.848527307317988</v>
       </c>
       <c r="O9">
-        <v>1.007725039551205</v>
+        <v>1.910810936492166</v>
       </c>
       <c r="P9">
-        <v>1.022387456394075</v>
+        <v>2.523649402134764</v>
       </c>
       <c r="Q9">
-        <v>1.022387456394075</v>
+        <v>2.523649402134764</v>
       </c>
       <c r="R9">
-        <v>1.025766885476182</v>
+        <v>2.361210449543152</v>
       </c>
       <c r="S9">
-        <v>1.025766885476182</v>
+        <v>2.361210449543152</v>
       </c>
       <c r="T9">
-        <v>1.023753362771504</v>
+        <v>1.973560841283849</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.042868792650362</v>
+        <v>2.039952511847482</v>
       </c>
       <c r="D10">
-        <v>0.9827367904557793</v>
+        <v>3.708254942202052</v>
       </c>
       <c r="E10">
-        <v>0.9827367904557793</v>
+        <v>3.708254942202052</v>
       </c>
       <c r="F10">
-        <v>1.020264112909525</v>
+        <v>1.845246362513717</v>
       </c>
       <c r="G10">
-        <v>1.020264112909525</v>
+        <v>1.845246362513717</v>
       </c>
       <c r="H10">
-        <v>0.9857095887742542</v>
+        <v>0.03492945616030728</v>
       </c>
       <c r="I10">
-        <v>1.245704369071664</v>
+        <v>4.392699650242602</v>
       </c>
       <c r="J10">
-        <v>1.001763040706066</v>
+        <v>0.144163352090536</v>
       </c>
       <c r="K10">
-        <v>1.020264112909525</v>
+        <v>1.845246362513717</v>
       </c>
       <c r="L10">
-        <v>1.042868792650362</v>
+        <v>2.039952511847482</v>
       </c>
       <c r="M10">
-        <v>1.012802791553071</v>
+        <v>2.874103727024767</v>
       </c>
       <c r="N10">
-        <v>1.012802791553071</v>
+        <v>2.874103727024767</v>
       </c>
       <c r="O10">
-        <v>1.003771723960132</v>
+        <v>1.92771230340328</v>
       </c>
       <c r="P10">
-        <v>1.015289898671889</v>
+        <v>2.53115127218775</v>
       </c>
       <c r="Q10">
-        <v>1.015289898671889</v>
+        <v>2.53115127218775</v>
       </c>
       <c r="R10">
-        <v>1.016533452231298</v>
+        <v>2.359675044769242</v>
       </c>
       <c r="S10">
-        <v>1.016533452231298</v>
+        <v>2.359675044769242</v>
       </c>
       <c r="T10">
-        <v>1.046507782427942</v>
+        <v>2.027541045842783</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.190648929091592</v>
+        <v>1.081770562969901</v>
       </c>
       <c r="D11">
-        <v>1.06271225156093</v>
+        <v>0.9535662553865667</v>
       </c>
       <c r="E11">
-        <v>1.06271225156093</v>
+        <v>0.9535662553865667</v>
       </c>
       <c r="F11">
-        <v>1.121417939059363</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="G11">
-        <v>1.121417939059363</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="H11">
-        <v>1.017071820501635</v>
+        <v>0.9521094646260612</v>
       </c>
       <c r="I11">
-        <v>1.300979289134874</v>
+        <v>0.9752708429192354</v>
       </c>
       <c r="J11">
-        <v>0.940093047370815</v>
+        <v>1.068697454826213</v>
       </c>
       <c r="K11">
-        <v>1.121417939059363</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="L11">
-        <v>1.190648929091592</v>
+        <v>1.081770562969901</v>
       </c>
       <c r="M11">
-        <v>1.126680590326261</v>
+        <v>1.017668409178234</v>
       </c>
       <c r="N11">
-        <v>1.126680590326261</v>
+        <v>1.017668409178234</v>
       </c>
       <c r="O11">
-        <v>1.090144333718052</v>
+        <v>0.9958154276608431</v>
       </c>
       <c r="P11">
-        <v>1.124926373237295</v>
+        <v>1.076866383741353</v>
       </c>
       <c r="Q11">
-        <v>1.124926373237295</v>
+        <v>1.076866383741353</v>
       </c>
       <c r="R11">
-        <v>1.124049264692812</v>
+        <v>1.106465371022913</v>
       </c>
       <c r="S11">
-        <v>1.124049264692812</v>
+        <v>1.106465371022913</v>
       </c>
       <c r="T11">
-        <v>1.105487212786535</v>
+        <v>1.037779485599262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.5353173396279407</v>
+        <v>1.037131506612644</v>
       </c>
       <c r="D12">
-        <v>0.2731877001756435</v>
+        <v>0.9984062680857474</v>
       </c>
       <c r="E12">
-        <v>0.2731877001756435</v>
+        <v>0.9984062680857474</v>
       </c>
       <c r="F12">
-        <v>1.839099416743353</v>
+        <v>1.097943964179497</v>
       </c>
       <c r="G12">
-        <v>1.839099416743353</v>
+        <v>1.097943964179497</v>
       </c>
       <c r="H12">
-        <v>1.28050112250611</v>
+        <v>0.9739686051633337</v>
       </c>
       <c r="I12">
-        <v>0.001005896292277912</v>
+        <v>1.011873684277744</v>
       </c>
       <c r="J12">
-        <v>1.076101711066956</v>
+        <v>1.030166503506492</v>
       </c>
       <c r="K12">
-        <v>1.839099416743353</v>
+        <v>1.097943964179497</v>
       </c>
       <c r="L12">
-        <v>0.5353173396279407</v>
+        <v>1.037131506612644</v>
       </c>
       <c r="M12">
-        <v>0.4042525199017921</v>
+        <v>1.017768887349196</v>
       </c>
       <c r="N12">
-        <v>0.4042525199017921</v>
+        <v>1.017768887349196</v>
       </c>
       <c r="O12">
-        <v>0.6963353874365646</v>
+        <v>1.003168793287242</v>
       </c>
       <c r="P12">
-        <v>0.8825348188489791</v>
+        <v>1.044493912959296</v>
       </c>
       <c r="Q12">
-        <v>0.8825348188489791</v>
+        <v>1.044493912959296</v>
       </c>
       <c r="R12">
-        <v>1.121675968322573</v>
+        <v>1.057856425764347</v>
       </c>
       <c r="S12">
-        <v>1.121675968322573</v>
+        <v>1.057856425764347</v>
       </c>
       <c r="T12">
-        <v>0.8342021977353801</v>
+        <v>1.024915088637577</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.255728795392275</v>
+        <v>1.195393408231925</v>
       </c>
       <c r="D13">
-        <v>1.598615370252646</v>
+        <v>0.9452078641409519</v>
       </c>
       <c r="E13">
-        <v>1.598615370252646</v>
+        <v>0.9452078641409519</v>
       </c>
       <c r="F13">
-        <v>0.9996281589042396</v>
+        <v>1.401480371388244</v>
       </c>
       <c r="G13">
-        <v>0.9996281589042396</v>
+        <v>1.401480371388244</v>
       </c>
       <c r="H13">
-        <v>0.6970805916650487</v>
+        <v>0.9141888605585492</v>
       </c>
       <c r="I13">
-        <v>0.4158354810641348</v>
+        <v>1.113820738143445</v>
       </c>
       <c r="J13">
-        <v>1.063608608492982</v>
+        <v>1.174192879656704</v>
       </c>
       <c r="K13">
-        <v>0.9996281589042396</v>
+        <v>1.401480371388244</v>
       </c>
       <c r="L13">
-        <v>1.255728795392275</v>
+        <v>1.195393408231925</v>
       </c>
       <c r="M13">
-        <v>1.427172082822461</v>
+        <v>1.070300636186438</v>
       </c>
       <c r="N13">
-        <v>1.427172082822461</v>
+        <v>1.070300636186438</v>
       </c>
       <c r="O13">
-        <v>1.183808252436657</v>
+        <v>1.018263377643809</v>
       </c>
       <c r="P13">
-        <v>1.284657441516387</v>
+        <v>1.180693881253707</v>
       </c>
       <c r="Q13">
-        <v>1.284657441516387</v>
+        <v>1.180693881253707</v>
       </c>
       <c r="R13">
-        <v>1.21340012086335</v>
+        <v>1.235890503787341</v>
       </c>
       <c r="S13">
-        <v>1.21340012086335</v>
+        <v>1.235890503787341</v>
       </c>
       <c r="T13">
-        <v>1.005082834295221</v>
+        <v>1.124047353686637</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.3279806751991264</v>
+        <v>1.711382871607025</v>
       </c>
       <c r="D14">
-        <v>0.009564223208535151</v>
+        <v>0.7209012046688761</v>
       </c>
       <c r="E14">
-        <v>0.009564223208535151</v>
+        <v>0.7209012046688761</v>
       </c>
       <c r="F14">
-        <v>1.824526065424647</v>
+        <v>2.219242525975569</v>
       </c>
       <c r="G14">
-        <v>1.824526065424647</v>
+        <v>2.219242525975569</v>
       </c>
       <c r="H14">
-        <v>2.033072525764183</v>
+        <v>0.8530621484093001</v>
       </c>
       <c r="I14">
-        <v>0.0009583326907496712</v>
+        <v>1.032035363732874</v>
       </c>
       <c r="J14">
-        <v>1.123644033566309</v>
+        <v>1.065772538309743</v>
       </c>
       <c r="K14">
-        <v>1.824526065424647</v>
+        <v>2.219242525975569</v>
       </c>
       <c r="L14">
-        <v>0.3279806751991264</v>
+        <v>1.711382871607025</v>
       </c>
       <c r="M14">
-        <v>0.1687724492038308</v>
+        <v>1.21614203813795</v>
       </c>
       <c r="N14">
-        <v>0.1687724492038308</v>
+        <v>1.21614203813795</v>
       </c>
       <c r="O14">
-        <v>0.7902058080572815</v>
+        <v>1.0951154082284</v>
       </c>
       <c r="P14">
-        <v>0.7206903212774362</v>
+        <v>1.550508867417157</v>
       </c>
       <c r="Q14">
-        <v>0.7206903212774362</v>
+        <v>1.550508867417157</v>
       </c>
       <c r="R14">
-        <v>0.9966492573142389</v>
+        <v>1.71769228205676</v>
       </c>
       <c r="S14">
-        <v>0.9966492573142389</v>
+        <v>1.71769228205676</v>
       </c>
       <c r="T14">
-        <v>0.886624309308925</v>
+        <v>1.267066108783898</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.365474223309173</v>
+        <v>1.090459797445682</v>
       </c>
       <c r="D15">
-        <v>3.037575828329734</v>
+        <v>0.9589444804891296</v>
       </c>
       <c r="E15">
-        <v>3.037575828329734</v>
+        <v>0.9589444804891296</v>
       </c>
       <c r="F15">
-        <v>0.3692450097986277</v>
+        <v>1.195694495806972</v>
       </c>
       <c r="G15">
-        <v>0.3692450097986277</v>
+        <v>1.195694495806972</v>
       </c>
       <c r="H15">
-        <v>0.5177535224561548</v>
+        <v>0.9563149741740277</v>
       </c>
       <c r="I15">
-        <v>0.3699524454777166</v>
+        <v>0.9834888377945582</v>
       </c>
       <c r="J15">
-        <v>0.9633165888619176</v>
+        <v>1.062887069016627</v>
       </c>
       <c r="K15">
-        <v>0.3692450097986277</v>
+        <v>1.195694495806972</v>
       </c>
       <c r="L15">
-        <v>1.365474223309173</v>
+        <v>1.090459797445682</v>
       </c>
       <c r="M15">
-        <v>2.201525025819454</v>
+        <v>1.024702138967406</v>
       </c>
       <c r="N15">
-        <v>2.201525025819454</v>
+        <v>1.024702138967406</v>
       </c>
       <c r="O15">
-        <v>1.640267858031687</v>
+        <v>1.001906417369613</v>
       </c>
       <c r="P15">
-        <v>1.590765020479179</v>
+        <v>1.081699591247261</v>
       </c>
       <c r="Q15">
-        <v>1.590765020479179</v>
+        <v>1.081699591247261</v>
       </c>
       <c r="R15">
-        <v>1.285385017809041</v>
+        <v>1.110198317387189</v>
       </c>
       <c r="S15">
-        <v>1.285385017809041</v>
+        <v>1.110198317387189</v>
       </c>
       <c r="T15">
-        <v>1.103886269705554</v>
+        <v>1.041298275787833</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.277720113824706</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="D16">
-        <v>0.1936853043786913</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="E16">
-        <v>0.1936853043786913</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="F16">
-        <v>4.268185151312361</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="G16">
-        <v>4.268185151312361</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="H16">
-        <v>0.2014960176882482</v>
+        <v>0.8893813698468173</v>
       </c>
       <c r="I16">
-        <v>0.8107506920500289</v>
+        <v>1.036918289223419</v>
       </c>
       <c r="J16">
-        <v>2.265066398188963</v>
+        <v>1.166803114073586</v>
       </c>
       <c r="K16">
-        <v>4.268185151312361</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="L16">
-        <v>2.277720113824706</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="M16">
-        <v>1.235702709101699</v>
+        <v>1.089922635963008</v>
       </c>
       <c r="N16">
-        <v>1.235702709101699</v>
+        <v>1.089922635963008</v>
       </c>
       <c r="O16">
-        <v>0.8909671452972153</v>
+        <v>1.023075547257611</v>
       </c>
       <c r="P16">
-        <v>2.246530189838586</v>
+        <v>1.201926758410353</v>
       </c>
       <c r="Q16">
-        <v>2.246530189838586</v>
+        <v>1.201926758410353</v>
       </c>
       <c r="R16">
-        <v>2.75194393020703</v>
+        <v>1.257928819634026</v>
       </c>
       <c r="S16">
-        <v>2.75194393020703</v>
+        <v>1.257928819634026</v>
       </c>
       <c r="T16">
-        <v>1.6694839462405</v>
+        <v>1.11648050806248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.861592372229571</v>
+        <v>1.365623119205356</v>
       </c>
       <c r="D17">
-        <v>0.3882083850965412</v>
+        <v>1.311130979447453</v>
       </c>
       <c r="E17">
-        <v>0.3882083850965412</v>
+        <v>1.311130979447453</v>
       </c>
       <c r="F17">
-        <v>3.141420693983876</v>
+        <v>2.089406385016801</v>
       </c>
       <c r="G17">
-        <v>3.141420693983876</v>
+        <v>2.089406385016801</v>
       </c>
       <c r="H17">
-        <v>0.4028971607460876</v>
+        <v>1.066396353861251</v>
       </c>
       <c r="I17">
-        <v>1.644748429279206</v>
+        <v>1.3746283920511</v>
       </c>
       <c r="J17">
-        <v>1.831173321574024</v>
+        <v>1.558036478120017</v>
       </c>
       <c r="K17">
-        <v>3.141420693983876</v>
+        <v>2.089406385016801</v>
       </c>
       <c r="L17">
-        <v>1.861592372229571</v>
+        <v>1.365623119205356</v>
       </c>
       <c r="M17">
-        <v>1.124900378663056</v>
+        <v>1.338377049326405</v>
       </c>
       <c r="N17">
-        <v>1.124900378663056</v>
+        <v>1.338377049326405</v>
       </c>
       <c r="O17">
-        <v>0.8842326393573998</v>
+        <v>1.247716817504687</v>
       </c>
       <c r="P17">
-        <v>1.797073817103329</v>
+        <v>1.588720161223203</v>
       </c>
       <c r="Q17">
-        <v>1.797073817103329</v>
+        <v>1.588720161223203</v>
       </c>
       <c r="R17">
-        <v>2.133160536323466</v>
+        <v>1.713891717171603</v>
       </c>
       <c r="S17">
-        <v>2.133160536323466</v>
+        <v>1.713891717171603</v>
       </c>
       <c r="T17">
-        <v>1.545006727151551</v>
+        <v>1.460870284616997</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.057641406504508</v>
+        <v>3.371933643735313</v>
       </c>
       <c r="D18">
-        <v>0.7844286441064514</v>
+        <v>0.4596626374693587</v>
       </c>
       <c r="E18">
-        <v>0.7844286441064514</v>
+        <v>0.4596626374693587</v>
       </c>
       <c r="F18">
-        <v>0.9159749730332184</v>
+        <v>3.614233723524627</v>
       </c>
       <c r="G18">
-        <v>0.9159749730332184</v>
+        <v>3.614233723524627</v>
       </c>
       <c r="H18">
-        <v>0.7964076982507109</v>
+        <v>0.6652926147446658</v>
       </c>
       <c r="I18">
-        <v>3.266650108276994</v>
+        <v>1.5494007622245</v>
       </c>
       <c r="J18">
-        <v>0.971301215878813</v>
+        <v>1.186095416756794</v>
       </c>
       <c r="K18">
-        <v>0.9159749730332184</v>
+        <v>3.614233723524627</v>
       </c>
       <c r="L18">
-        <v>1.057641406504508</v>
+        <v>3.371933643735313</v>
       </c>
       <c r="M18">
-        <v>0.9210350253054798</v>
+        <v>1.915798140602336</v>
       </c>
       <c r="N18">
-        <v>0.9210350253054798</v>
+        <v>1.915798140602336</v>
       </c>
       <c r="O18">
-        <v>0.8794925829538901</v>
+        <v>1.498962965316446</v>
       </c>
       <c r="P18">
-        <v>0.919348341214726</v>
+        <v>2.481943334909766</v>
       </c>
       <c r="Q18">
-        <v>0.919348341214726</v>
+        <v>2.481943334909766</v>
       </c>
       <c r="R18">
-        <v>0.918504999169349</v>
+        <v>2.765015932063482</v>
       </c>
       <c r="S18">
-        <v>0.918504999169349</v>
+        <v>2.765015932063482</v>
       </c>
       <c r="T18">
-        <v>1.298734007675116</v>
+        <v>1.807769799742543</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9259027058273253</v>
+        <v>1.000704780332509</v>
       </c>
       <c r="D19">
-        <v>1.253348693422193</v>
+        <v>0.9981985436818355</v>
       </c>
       <c r="E19">
-        <v>1.253348693422193</v>
+        <v>0.9981985436818355</v>
       </c>
       <c r="F19">
-        <v>0.8391773157330473</v>
+        <v>0.998332214665046</v>
       </c>
       <c r="G19">
-        <v>0.8391773157330473</v>
+        <v>0.998332214665046</v>
       </c>
       <c r="H19">
-        <v>0.7119675000022988</v>
+        <v>0.9985018298033749</v>
       </c>
       <c r="I19">
-        <v>4.174015488718463</v>
+        <v>1.038183792748109</v>
       </c>
       <c r="J19">
-        <v>0.9680450907003606</v>
+        <v>0.9989693591038429</v>
       </c>
       <c r="K19">
-        <v>0.8391773157330473</v>
+        <v>0.998332214665046</v>
       </c>
       <c r="L19">
-        <v>0.9259027058273253</v>
+        <v>1.000704780332509</v>
       </c>
       <c r="M19">
-        <v>1.089625699624759</v>
+        <v>0.9994516620071724</v>
       </c>
       <c r="N19">
-        <v>1.089625699624759</v>
+        <v>0.9994516620071724</v>
       </c>
       <c r="O19">
-        <v>0.9637396330839391</v>
+        <v>0.9991350512725732</v>
       </c>
       <c r="P19">
-        <v>1.006142904994189</v>
+        <v>0.9990785128931302</v>
       </c>
       <c r="Q19">
-        <v>1.006142904994189</v>
+        <v>0.9990785128931302</v>
       </c>
       <c r="R19">
-        <v>0.9644015076789032</v>
+        <v>0.9988919383361092</v>
       </c>
       <c r="S19">
-        <v>0.9644015076789032</v>
+        <v>0.9988919383361092</v>
       </c>
       <c r="T19">
-        <v>1.478742799067281</v>
+        <v>1.00548175338912</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.985216604446176</v>
+        <v>1.008134368941625</v>
       </c>
       <c r="D20">
-        <v>1.005819428960362</v>
+        <v>0.9874692297861644</v>
       </c>
       <c r="E20">
-        <v>1.005819428960362</v>
+        <v>0.9874692297861644</v>
       </c>
       <c r="F20">
-        <v>1.040770170420817</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="G20">
-        <v>1.040770170420817</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="H20">
-        <v>1.0013368151842</v>
+        <v>0.9961863928747223</v>
       </c>
       <c r="I20">
-        <v>1.030950056982325</v>
+        <v>1.085218818984828</v>
       </c>
       <c r="J20">
-        <v>0.9830182247310975</v>
+        <v>0.9988090644825015</v>
       </c>
       <c r="K20">
-        <v>1.040770170420817</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="L20">
-        <v>0.985216604446176</v>
+        <v>1.008134368941625</v>
       </c>
       <c r="M20">
-        <v>0.9955180167032689</v>
+        <v>0.9978017993638946</v>
       </c>
       <c r="N20">
-        <v>0.9955180167032689</v>
+        <v>0.9978017993638946</v>
       </c>
       <c r="O20">
-        <v>0.9974576161969128</v>
+        <v>0.9972633305341705</v>
       </c>
       <c r="P20">
-        <v>1.010602067942452</v>
+        <v>0.9972960339639084</v>
       </c>
       <c r="Q20">
-        <v>1.010602067942452</v>
+        <v>0.9972960339639084</v>
       </c>
       <c r="R20">
-        <v>1.018144093562043</v>
+        <v>0.9970431512639153</v>
       </c>
       <c r="S20">
-        <v>1.018144093562043</v>
+        <v>0.9970431512639153</v>
       </c>
       <c r="T20">
-        <v>1.007851883454163</v>
+        <v>1.012017063038963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.028968515598282</v>
+        <v>1.038991344385248</v>
       </c>
       <c r="D21">
-        <v>1.023588681706443</v>
+        <v>0.9922658520744719</v>
       </c>
       <c r="E21">
-        <v>1.023588681706443</v>
+        <v>0.9922658520744719</v>
       </c>
       <c r="F21">
-        <v>0.8986392809310543</v>
+        <v>1.035905172722504</v>
       </c>
       <c r="G21">
-        <v>0.8986392809310543</v>
+        <v>1.035905172722504</v>
       </c>
       <c r="H21">
-        <v>0.9954442626852554</v>
+        <v>0.9919179221938944</v>
       </c>
       <c r="I21">
-        <v>1.043588727727399</v>
+        <v>1.089931895171772</v>
       </c>
       <c r="J21">
-        <v>1.006814243809744</v>
+        <v>0.9935079900811358</v>
       </c>
       <c r="K21">
-        <v>0.8986392809310543</v>
+        <v>1.035905172722504</v>
       </c>
       <c r="L21">
-        <v>1.028968515598282</v>
+        <v>1.038991344385248</v>
       </c>
       <c r="M21">
-        <v>1.026278598652362</v>
+        <v>1.01562859822986</v>
       </c>
       <c r="N21">
-        <v>1.026278598652362</v>
+        <v>1.01562859822986</v>
       </c>
       <c r="O21">
-        <v>1.016000486663327</v>
+        <v>1.007725039551205</v>
       </c>
       <c r="P21">
-        <v>0.9837321594119263</v>
+        <v>1.022387456394075</v>
       </c>
       <c r="Q21">
-        <v>0.9837321594119265</v>
+        <v>1.022387456394075</v>
       </c>
       <c r="R21">
-        <v>0.9624589397917084</v>
+        <v>1.025766885476182</v>
       </c>
       <c r="S21">
-        <v>0.9624589397917084</v>
+        <v>1.025766885476182</v>
       </c>
       <c r="T21">
-        <v>0.9995072854096961</v>
+        <v>1.023753362771504</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.129856857140447</v>
+        <v>1.042868792650362</v>
       </c>
       <c r="D22">
-        <v>1.013992582930868</v>
+        <v>0.9827367904557793</v>
       </c>
       <c r="E22">
-        <v>1.013992582930868</v>
+        <v>0.9827367904557793</v>
       </c>
       <c r="F22">
-        <v>1.132095149278222</v>
+        <v>1.020264112909525</v>
       </c>
       <c r="G22">
-        <v>1.132095149278222</v>
+        <v>1.020264112909525</v>
       </c>
       <c r="H22">
-        <v>1.005417117628825</v>
+        <v>0.9857095887742542</v>
       </c>
       <c r="I22">
-        <v>1.105703021968857</v>
+        <v>1.245704369071664</v>
       </c>
       <c r="J22">
-        <v>0.8755126018880922</v>
+        <v>1.001763040706066</v>
       </c>
       <c r="K22">
-        <v>1.132095149278222</v>
+        <v>1.020264112909525</v>
       </c>
       <c r="L22">
-        <v>1.129856857140447</v>
+        <v>1.042868792650362</v>
       </c>
       <c r="M22">
-        <v>1.071924720035658</v>
+        <v>1.012802791553071</v>
       </c>
       <c r="N22">
-        <v>1.071924720035658</v>
+        <v>1.012802791553071</v>
       </c>
       <c r="O22">
-        <v>1.04975551923338</v>
+        <v>1.003771723960132</v>
       </c>
       <c r="P22">
-        <v>1.091981529783179</v>
+        <v>1.015289898671889</v>
       </c>
       <c r="Q22">
-        <v>1.091981529783179</v>
+        <v>1.015289898671889</v>
       </c>
       <c r="R22">
-        <v>1.10200993465694</v>
+        <v>1.016533452231298</v>
       </c>
       <c r="S22">
-        <v>1.10200993465694</v>
+        <v>1.016533452231298</v>
       </c>
       <c r="T22">
-        <v>1.043762888472552</v>
+        <v>1.046507782427942</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.190648929091592</v>
+      </c>
+      <c r="D23">
+        <v>1.06271225156093</v>
+      </c>
+      <c r="E23">
+        <v>1.06271225156093</v>
+      </c>
+      <c r="F23">
+        <v>1.121417939059363</v>
+      </c>
+      <c r="G23">
+        <v>1.121417939059363</v>
+      </c>
+      <c r="H23">
+        <v>1.017071820501635</v>
+      </c>
+      <c r="I23">
+        <v>1.300979289134874</v>
+      </c>
+      <c r="J23">
+        <v>0.940093047370815</v>
+      </c>
+      <c r="K23">
+        <v>1.121417939059363</v>
+      </c>
+      <c r="L23">
+        <v>1.190648929091592</v>
+      </c>
+      <c r="M23">
+        <v>1.126680590326261</v>
+      </c>
+      <c r="N23">
+        <v>1.126680590326261</v>
+      </c>
+      <c r="O23">
+        <v>1.090144333718052</v>
+      </c>
+      <c r="P23">
+        <v>1.124926373237295</v>
+      </c>
+      <c r="Q23">
+        <v>1.124926373237295</v>
+      </c>
+      <c r="R23">
+        <v>1.124049264692812</v>
+      </c>
+      <c r="S23">
+        <v>1.124049264692812</v>
+      </c>
+      <c r="T23">
+        <v>1.105487212786535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.5353173396279407</v>
+      </c>
+      <c r="D24">
+        <v>0.2731877001756435</v>
+      </c>
+      <c r="E24">
+        <v>0.2731877001756435</v>
+      </c>
+      <c r="F24">
+        <v>1.839099416743353</v>
+      </c>
+      <c r="G24">
+        <v>1.839099416743353</v>
+      </c>
+      <c r="H24">
+        <v>1.28050112250611</v>
+      </c>
+      <c r="I24">
+        <v>0.001005896292277912</v>
+      </c>
+      <c r="J24">
+        <v>1.076101711066956</v>
+      </c>
+      <c r="K24">
+        <v>1.839099416743353</v>
+      </c>
+      <c r="L24">
+        <v>0.5353173396279407</v>
+      </c>
+      <c r="M24">
+        <v>0.4042525199017921</v>
+      </c>
+      <c r="N24">
+        <v>0.4042525199017921</v>
+      </c>
+      <c r="O24">
+        <v>0.6963353874365646</v>
+      </c>
+      <c r="P24">
+        <v>0.8825348188489791</v>
+      </c>
+      <c r="Q24">
+        <v>0.8825348188489791</v>
+      </c>
+      <c r="R24">
+        <v>1.121675968322573</v>
+      </c>
+      <c r="S24">
+        <v>1.121675968322573</v>
+      </c>
+      <c r="T24">
+        <v>0.8342021977353801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.255728795392275</v>
+      </c>
+      <c r="D25">
+        <v>1.598615370252646</v>
+      </c>
+      <c r="E25">
+        <v>1.598615370252646</v>
+      </c>
+      <c r="F25">
+        <v>0.9996281589042396</v>
+      </c>
+      <c r="G25">
+        <v>0.9996281589042396</v>
+      </c>
+      <c r="H25">
+        <v>0.6970805916650487</v>
+      </c>
+      <c r="I25">
+        <v>0.4158354810641348</v>
+      </c>
+      <c r="J25">
+        <v>1.063608608492982</v>
+      </c>
+      <c r="K25">
+        <v>0.9996281589042396</v>
+      </c>
+      <c r="L25">
+        <v>1.255728795392275</v>
+      </c>
+      <c r="M25">
+        <v>1.427172082822461</v>
+      </c>
+      <c r="N25">
+        <v>1.427172082822461</v>
+      </c>
+      <c r="O25">
+        <v>1.183808252436657</v>
+      </c>
+      <c r="P25">
+        <v>1.284657441516387</v>
+      </c>
+      <c r="Q25">
+        <v>1.284657441516387</v>
+      </c>
+      <c r="R25">
+        <v>1.21340012086335</v>
+      </c>
+      <c r="S25">
+        <v>1.21340012086335</v>
+      </c>
+      <c r="T25">
+        <v>1.005082834295221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.3279806751991264</v>
+      </c>
+      <c r="D26">
+        <v>0.009564223208535151</v>
+      </c>
+      <c r="E26">
+        <v>0.009564223208535151</v>
+      </c>
+      <c r="F26">
+        <v>1.824526065424647</v>
+      </c>
+      <c r="G26">
+        <v>1.824526065424647</v>
+      </c>
+      <c r="H26">
+        <v>2.033072525764183</v>
+      </c>
+      <c r="I26">
+        <v>0.0009583326907496712</v>
+      </c>
+      <c r="J26">
+        <v>1.123644033566309</v>
+      </c>
+      <c r="K26">
+        <v>1.824526065424647</v>
+      </c>
+      <c r="L26">
+        <v>0.3279806751991264</v>
+      </c>
+      <c r="M26">
+        <v>0.1687724492038308</v>
+      </c>
+      <c r="N26">
+        <v>0.1687724492038308</v>
+      </c>
+      <c r="O26">
+        <v>0.7902058080572815</v>
+      </c>
+      <c r="P26">
+        <v>0.7206903212774362</v>
+      </c>
+      <c r="Q26">
+        <v>0.7206903212774362</v>
+      </c>
+      <c r="R26">
+        <v>0.9966492573142389</v>
+      </c>
+      <c r="S26">
+        <v>0.9966492573142389</v>
+      </c>
+      <c r="T26">
+        <v>0.886624309308925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.365474223309173</v>
+      </c>
+      <c r="D27">
+        <v>3.037575828329734</v>
+      </c>
+      <c r="E27">
+        <v>3.037575828329734</v>
+      </c>
+      <c r="F27">
+        <v>0.3692450097986277</v>
+      </c>
+      <c r="G27">
+        <v>0.3692450097986277</v>
+      </c>
+      <c r="H27">
+        <v>0.5177535224561548</v>
+      </c>
+      <c r="I27">
+        <v>0.3699524454777166</v>
+      </c>
+      <c r="J27">
+        <v>0.9633165888619176</v>
+      </c>
+      <c r="K27">
+        <v>0.3692450097986277</v>
+      </c>
+      <c r="L27">
+        <v>1.365474223309173</v>
+      </c>
+      <c r="M27">
+        <v>2.201525025819454</v>
+      </c>
+      <c r="N27">
+        <v>2.201525025819454</v>
+      </c>
+      <c r="O27">
+        <v>1.640267858031687</v>
+      </c>
+      <c r="P27">
+        <v>1.590765020479179</v>
+      </c>
+      <c r="Q27">
+        <v>1.590765020479179</v>
+      </c>
+      <c r="R27">
+        <v>1.285385017809041</v>
+      </c>
+      <c r="S27">
+        <v>1.285385017809041</v>
+      </c>
+      <c r="T27">
+        <v>1.103886269705554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>2.277720113824706</v>
+      </c>
+      <c r="D28">
+        <v>0.1936853043786913</v>
+      </c>
+      <c r="E28">
+        <v>0.1936853043786913</v>
+      </c>
+      <c r="F28">
+        <v>4.268185151312361</v>
+      </c>
+      <c r="G28">
+        <v>4.268185151312361</v>
+      </c>
+      <c r="H28">
+        <v>0.2014960176882482</v>
+      </c>
+      <c r="I28">
+        <v>0.8107506920500289</v>
+      </c>
+      <c r="J28">
+        <v>2.265066398188963</v>
+      </c>
+      <c r="K28">
+        <v>4.268185151312361</v>
+      </c>
+      <c r="L28">
+        <v>2.277720113824706</v>
+      </c>
+      <c r="M28">
+        <v>1.235702709101699</v>
+      </c>
+      <c r="N28">
+        <v>1.235702709101699</v>
+      </c>
+      <c r="O28">
+        <v>0.8909671452972153</v>
+      </c>
+      <c r="P28">
+        <v>2.246530189838586</v>
+      </c>
+      <c r="Q28">
+        <v>2.246530189838586</v>
+      </c>
+      <c r="R28">
+        <v>2.75194393020703</v>
+      </c>
+      <c r="S28">
+        <v>2.75194393020703</v>
+      </c>
+      <c r="T28">
+        <v>1.6694839462405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.861592372229571</v>
+      </c>
+      <c r="D29">
+        <v>0.3882083850965412</v>
+      </c>
+      <c r="E29">
+        <v>0.3882083850965412</v>
+      </c>
+      <c r="F29">
+        <v>3.141420693983876</v>
+      </c>
+      <c r="G29">
+        <v>3.141420693983876</v>
+      </c>
+      <c r="H29">
+        <v>0.4028971607460876</v>
+      </c>
+      <c r="I29">
+        <v>1.644748429279206</v>
+      </c>
+      <c r="J29">
+        <v>1.831173321574024</v>
+      </c>
+      <c r="K29">
+        <v>3.141420693983876</v>
+      </c>
+      <c r="L29">
+        <v>1.861592372229571</v>
+      </c>
+      <c r="M29">
+        <v>1.124900378663056</v>
+      </c>
+      <c r="N29">
+        <v>1.124900378663056</v>
+      </c>
+      <c r="O29">
+        <v>0.8842326393573998</v>
+      </c>
+      <c r="P29">
+        <v>1.797073817103329</v>
+      </c>
+      <c r="Q29">
+        <v>1.797073817103329</v>
+      </c>
+      <c r="R29">
+        <v>2.133160536323466</v>
+      </c>
+      <c r="S29">
+        <v>2.133160536323466</v>
+      </c>
+      <c r="T29">
+        <v>1.545006727151551</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.057641406504508</v>
+      </c>
+      <c r="D30">
+        <v>0.7844286441064514</v>
+      </c>
+      <c r="E30">
+        <v>0.7844286441064514</v>
+      </c>
+      <c r="F30">
+        <v>0.9159749730332184</v>
+      </c>
+      <c r="G30">
+        <v>0.9159749730332184</v>
+      </c>
+      <c r="H30">
+        <v>0.7964076982507109</v>
+      </c>
+      <c r="I30">
+        <v>3.266650108276994</v>
+      </c>
+      <c r="J30">
+        <v>0.971301215878813</v>
+      </c>
+      <c r="K30">
+        <v>0.9159749730332184</v>
+      </c>
+      <c r="L30">
+        <v>1.057641406504508</v>
+      </c>
+      <c r="M30">
+        <v>0.9210350253054798</v>
+      </c>
+      <c r="N30">
+        <v>0.9210350253054798</v>
+      </c>
+      <c r="O30">
+        <v>0.8794925829538901</v>
+      </c>
+      <c r="P30">
+        <v>0.919348341214726</v>
+      </c>
+      <c r="Q30">
+        <v>0.919348341214726</v>
+      </c>
+      <c r="R30">
+        <v>0.918504999169349</v>
+      </c>
+      <c r="S30">
+        <v>0.918504999169349</v>
+      </c>
+      <c r="T30">
+        <v>1.298734007675116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9259027058273253</v>
+      </c>
+      <c r="D31">
+        <v>1.253348693422193</v>
+      </c>
+      <c r="E31">
+        <v>1.253348693422193</v>
+      </c>
+      <c r="F31">
+        <v>0.8391773157330473</v>
+      </c>
+      <c r="G31">
+        <v>0.8391773157330473</v>
+      </c>
+      <c r="H31">
+        <v>0.7119675000022988</v>
+      </c>
+      <c r="I31">
+        <v>4.174015488718463</v>
+      </c>
+      <c r="J31">
+        <v>0.9680450907003606</v>
+      </c>
+      <c r="K31">
+        <v>0.8391773157330473</v>
+      </c>
+      <c r="L31">
+        <v>0.9259027058273253</v>
+      </c>
+      <c r="M31">
+        <v>1.089625699624759</v>
+      </c>
+      <c r="N31">
+        <v>1.089625699624759</v>
+      </c>
+      <c r="O31">
+        <v>0.9637396330839391</v>
+      </c>
+      <c r="P31">
+        <v>1.006142904994189</v>
+      </c>
+      <c r="Q31">
+        <v>1.006142904994189</v>
+      </c>
+      <c r="R31">
+        <v>0.9644015076789032</v>
+      </c>
+      <c r="S31">
+        <v>0.9644015076789032</v>
+      </c>
+      <c r="T31">
+        <v>1.478742799067281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>2.866815715448219</v>
+      </c>
+      <c r="D32">
+        <v>-0.001348055636986302</v>
+      </c>
+      <c r="E32">
+        <v>-0.001348055636986302</v>
+      </c>
+      <c r="F32">
+        <v>5.319488004905479</v>
+      </c>
+      <c r="G32">
+        <v>5.319488004905479</v>
+      </c>
+      <c r="H32">
+        <v>-0.0003479084849315068</v>
+      </c>
+      <c r="I32">
+        <v>0.001346627909589041</v>
+      </c>
+      <c r="J32">
+        <v>2.66879592160548</v>
+      </c>
+      <c r="K32">
+        <v>5.319488004905479</v>
+      </c>
+      <c r="L32">
+        <v>2.866815715448219</v>
+      </c>
+      <c r="M32">
+        <v>1.432733829905616</v>
+      </c>
+      <c r="N32">
+        <v>1.432733829905616</v>
+      </c>
+      <c r="O32">
+        <v>0.9550399171087672</v>
+      </c>
+      <c r="P32">
+        <v>2.728318554905571</v>
+      </c>
+      <c r="Q32">
+        <v>2.728318554905571</v>
+      </c>
+      <c r="R32">
+        <v>3.376110917405548</v>
+      </c>
+      <c r="S32">
+        <v>3.376110917405548</v>
+      </c>
+      <c r="T32">
+        <v>1.809125050957808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.2667974827382105</v>
+      </c>
+      <c r="D33">
+        <v>0.001263986031999999</v>
+      </c>
+      <c r="E33">
+        <v>0.001263986031999999</v>
+      </c>
+      <c r="F33">
+        <v>2.504722204034894</v>
+      </c>
+      <c r="G33">
+        <v>2.504722204034894</v>
+      </c>
+      <c r="H33">
+        <v>0.3741772924495264</v>
+      </c>
+      <c r="I33">
+        <v>3.752783920057364</v>
+      </c>
+      <c r="J33">
+        <v>1.148879533968421</v>
+      </c>
+      <c r="K33">
+        <v>2.504722204034894</v>
+      </c>
+      <c r="L33">
+        <v>0.2667974827382105</v>
+      </c>
+      <c r="M33">
+        <v>0.1340307343851053</v>
+      </c>
+      <c r="N33">
+        <v>0.1340307343851053</v>
+      </c>
+      <c r="O33">
+        <v>0.2140795870732456</v>
+      </c>
+      <c r="P33">
+        <v>0.9242612242683683</v>
+      </c>
+      <c r="Q33">
+        <v>0.9242612242683683</v>
+      </c>
+      <c r="R33">
+        <v>1.31937646921</v>
+      </c>
+      <c r="S33">
+        <v>1.31937646921</v>
+      </c>
+      <c r="T33">
+        <v>1.341437403213403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>2.105215038871263</v>
+      </c>
+      <c r="D34">
+        <v>3.406934148036842</v>
+      </c>
+      <c r="E34">
+        <v>3.406934148036842</v>
+      </c>
+      <c r="F34">
+        <v>1.704390385821579</v>
+      </c>
+      <c r="G34">
+        <v>1.704390385821579</v>
+      </c>
+      <c r="H34">
+        <v>0.03203716434815789</v>
+      </c>
+      <c r="I34">
+        <v>6.308808287847365</v>
+      </c>
+      <c r="J34">
+        <v>0.1417101757157894</v>
+      </c>
+      <c r="K34">
+        <v>1.704390385821579</v>
+      </c>
+      <c r="L34">
+        <v>2.105215038871263</v>
+      </c>
+      <c r="M34">
+        <v>2.756074593454052</v>
+      </c>
+      <c r="N34">
+        <v>2.756074593454052</v>
+      </c>
+      <c r="O34">
+        <v>1.848062117085421</v>
+      </c>
+      <c r="P34">
+        <v>2.405513190909895</v>
+      </c>
+      <c r="Q34">
+        <v>2.405513190909895</v>
+      </c>
+      <c r="R34">
+        <v>2.230232489637816</v>
+      </c>
+      <c r="S34">
+        <v>2.230232489637816</v>
+      </c>
+      <c r="T34">
+        <v>2.283182533440166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5101021293878658</v>
+      </c>
+      <c r="D35">
+        <v>0.3941785473698862</v>
+      </c>
+      <c r="E35">
+        <v>0.3941785473698862</v>
+      </c>
+      <c r="F35">
+        <v>0.4373357528983553</v>
+      </c>
+      <c r="G35">
+        <v>0.4373357528983553</v>
+      </c>
+      <c r="H35">
+        <v>0.4052226872482287</v>
+      </c>
+      <c r="I35">
+        <v>24.38632783153905</v>
+      </c>
+      <c r="J35">
+        <v>0.4773246116793712</v>
+      </c>
+      <c r="K35">
+        <v>0.4373357528983553</v>
+      </c>
+      <c r="L35">
+        <v>0.5101021293878658</v>
+      </c>
+      <c r="M35">
+        <v>0.452140338378876</v>
+      </c>
+      <c r="N35">
+        <v>0.452140338378876</v>
+      </c>
+      <c r="O35">
+        <v>0.4365011213353269</v>
+      </c>
+      <c r="P35">
+        <v>0.4472054765520357</v>
+      </c>
+      <c r="Q35">
+        <v>0.4472054765520357</v>
+      </c>
+      <c r="R35">
+        <v>0.4447380456386156</v>
+      </c>
+      <c r="S35">
+        <v>0.4447380456386156</v>
+      </c>
+      <c r="T35">
+        <v>4.435081926687126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.985216604446176</v>
+      </c>
+      <c r="D36">
+        <v>1.005819428960362</v>
+      </c>
+      <c r="E36">
+        <v>1.005819428960362</v>
+      </c>
+      <c r="F36">
+        <v>1.040770170420817</v>
+      </c>
+      <c r="G36">
+        <v>1.040770170420817</v>
+      </c>
+      <c r="H36">
+        <v>1.0013368151842</v>
+      </c>
+      <c r="I36">
+        <v>1.030950056982325</v>
+      </c>
+      <c r="J36">
+        <v>0.9830182247310975</v>
+      </c>
+      <c r="K36">
+        <v>1.040770170420817</v>
+      </c>
+      <c r="L36">
+        <v>0.985216604446176</v>
+      </c>
+      <c r="M36">
+        <v>0.9955180167032689</v>
+      </c>
+      <c r="N36">
+        <v>0.9955180167032689</v>
+      </c>
+      <c r="O36">
+        <v>0.9974576161969128</v>
+      </c>
+      <c r="P36">
+        <v>1.010602067942452</v>
+      </c>
+      <c r="Q36">
+        <v>1.010602067942452</v>
+      </c>
+      <c r="R36">
+        <v>1.018144093562043</v>
+      </c>
+      <c r="S36">
+        <v>1.018144093562043</v>
+      </c>
+      <c r="T36">
+        <v>1.007851883454163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.028968515598282</v>
+      </c>
+      <c r="D37">
+        <v>1.023588681706443</v>
+      </c>
+      <c r="E37">
+        <v>1.023588681706443</v>
+      </c>
+      <c r="F37">
+        <v>0.8986392809310543</v>
+      </c>
+      <c r="G37">
+        <v>0.8986392809310543</v>
+      </c>
+      <c r="H37">
+        <v>0.9954442626852554</v>
+      </c>
+      <c r="I37">
+        <v>1.043588727727399</v>
+      </c>
+      <c r="J37">
+        <v>1.006814243809744</v>
+      </c>
+      <c r="K37">
+        <v>0.8986392809310543</v>
+      </c>
+      <c r="L37">
+        <v>1.028968515598282</v>
+      </c>
+      <c r="M37">
+        <v>1.026278598652362</v>
+      </c>
+      <c r="N37">
+        <v>1.026278598652362</v>
+      </c>
+      <c r="O37">
+        <v>1.016000486663327</v>
+      </c>
+      <c r="P37">
+        <v>0.9837321594119263</v>
+      </c>
+      <c r="Q37">
+        <v>0.9837321594119265</v>
+      </c>
+      <c r="R37">
+        <v>0.9624589397917084</v>
+      </c>
+      <c r="S37">
+        <v>0.9624589397917084</v>
+      </c>
+      <c r="T37">
+        <v>0.9995072854096961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.129856857140447</v>
+      </c>
+      <c r="D38">
+        <v>1.013992582930868</v>
+      </c>
+      <c r="E38">
+        <v>1.013992582930868</v>
+      </c>
+      <c r="F38">
+        <v>1.132095149278222</v>
+      </c>
+      <c r="G38">
+        <v>1.132095149278222</v>
+      </c>
+      <c r="H38">
+        <v>1.005417117628825</v>
+      </c>
+      <c r="I38">
+        <v>1.105703021968857</v>
+      </c>
+      <c r="J38">
+        <v>0.8755126018880922</v>
+      </c>
+      <c r="K38">
+        <v>1.132095149278222</v>
+      </c>
+      <c r="L38">
+        <v>1.129856857140447</v>
+      </c>
+      <c r="M38">
+        <v>1.071924720035658</v>
+      </c>
+      <c r="N38">
+        <v>1.071924720035658</v>
+      </c>
+      <c r="O38">
+        <v>1.04975551923338</v>
+      </c>
+      <c r="P38">
+        <v>1.091981529783179</v>
+      </c>
+      <c r="Q38">
+        <v>1.091981529783179</v>
+      </c>
+      <c r="R38">
+        <v>1.10200993465694</v>
+      </c>
+      <c r="S38">
+        <v>1.10200993465694</v>
+      </c>
+      <c r="T38">
+        <v>1.043762888472552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.804012626153218</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.7911919769185698</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.7911919769185698</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.581520835163285</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.581520835163285</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.110890079203579</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9692268336270797</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.020486115468406</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.581520835163285</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.804012626153218</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.797602301535894</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.797602301535894</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9020315607584557</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.058908479411691</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.058908479411691</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.189561568349589</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.189561568349589</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.046221411089023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8840667873860256</v>
+      </c>
+      <c r="D40">
+        <v>0.8086297637918995</v>
+      </c>
+      <c r="E40">
+        <v>0.8086297637918995</v>
+      </c>
+      <c r="F40">
+        <v>1.891452413364914</v>
+      </c>
+      <c r="G40">
+        <v>1.891452413364914</v>
+      </c>
+      <c r="H40">
+        <v>0.8630254139768738</v>
+      </c>
+      <c r="I40">
+        <v>0.933098027846971</v>
+      </c>
+      <c r="J40">
+        <v>0.9716474003225971</v>
+      </c>
+      <c r="K40">
+        <v>1.891452413364914</v>
+      </c>
+      <c r="L40">
+        <v>0.8840667873860256</v>
+      </c>
+      <c r="M40">
+        <v>0.8463482755889626</v>
+      </c>
+      <c r="N40">
+        <v>0.8463482755889626</v>
+      </c>
+      <c r="O40">
+        <v>0.8519073217182663</v>
+      </c>
+      <c r="P40">
+        <v>1.19471632151428</v>
+      </c>
+      <c r="Q40">
+        <v>1.19471632151428</v>
+      </c>
+      <c r="R40">
+        <v>1.368900344476938</v>
+      </c>
+      <c r="S40">
+        <v>1.368900344476938</v>
+      </c>
+      <c r="T40">
+        <v>1.05865330111488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9047943532782518</v>
+      </c>
+      <c r="D41">
+        <v>1.31870396058066</v>
+      </c>
+      <c r="E41">
+        <v>1.31870396058066</v>
+      </c>
+      <c r="F41">
+        <v>0.8721391188286394</v>
+      </c>
+      <c r="G41">
+        <v>0.8721391188286394</v>
+      </c>
+      <c r="H41">
+        <v>1.11653369535079</v>
+      </c>
+      <c r="I41">
+        <v>1.089895008582656</v>
+      </c>
+      <c r="J41">
+        <v>0.9131041498642389</v>
+      </c>
+      <c r="K41">
+        <v>0.8721391188286394</v>
+      </c>
+      <c r="L41">
+        <v>0.9047943532782518</v>
+      </c>
+      <c r="M41">
+        <v>1.111749156929456</v>
+      </c>
+      <c r="N41">
+        <v>1.111749156929456</v>
+      </c>
+      <c r="O41">
+        <v>1.113344003069901</v>
+      </c>
+      <c r="P41">
+        <v>1.031879144229184</v>
+      </c>
+      <c r="Q41">
+        <v>1.031879144229184</v>
+      </c>
+      <c r="R41">
+        <v>0.9919441378790477</v>
+      </c>
+      <c r="S41">
+        <v>0.9919441378790477</v>
+      </c>
+      <c r="T41">
+        <v>1.035861714414206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.083177270808265</v>
+      </c>
+      <c r="D42">
+        <v>0.1990599782398223</v>
+      </c>
+      <c r="E42">
+        <v>0.1990599782398223</v>
+      </c>
+      <c r="F42">
+        <v>1.982089535634451</v>
+      </c>
+      <c r="G42">
+        <v>1.982089535634451</v>
+      </c>
+      <c r="H42">
+        <v>0.5840256098849326</v>
+      </c>
+      <c r="I42">
+        <v>1.058135462062177</v>
+      </c>
+      <c r="J42">
+        <v>1.171294824167384</v>
+      </c>
+      <c r="K42">
+        <v>1.982089535634451</v>
+      </c>
+      <c r="L42">
+        <v>1.083177270808265</v>
+      </c>
+      <c r="M42">
+        <v>0.6411186245240438</v>
+      </c>
+      <c r="N42">
+        <v>0.6411186245240438</v>
+      </c>
+      <c r="O42">
+        <v>0.62208761964434</v>
+      </c>
+      <c r="P42">
+        <v>1.088108928227513</v>
+      </c>
+      <c r="Q42">
+        <v>1.088108928227513</v>
+      </c>
+      <c r="R42">
+        <v>1.311604080079247</v>
+      </c>
+      <c r="S42">
+        <v>1.311604080079247</v>
+      </c>
+      <c r="T42">
+        <v>1.012963780132839</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.195694495806972</v>
+        <v>1.008134368941625</v>
       </c>
       <c r="D3">
-        <v>0.9589444804891296</v>
+        <v>0.9874692297861644</v>
       </c>
       <c r="E3">
-        <v>1.090459797445682</v>
+        <v>0.9874692297861644</v>
       </c>
       <c r="F3">
-        <v>1.195694495806972</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="G3">
-        <v>0.9834888377945582</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="H3">
-        <v>0.9563149741740277</v>
+        <v>0.9961863928747223</v>
       </c>
       <c r="I3">
-        <v>1.062887069016627</v>
+        <v>1.085218818984828</v>
       </c>
       <c r="J3">
-        <v>0.9589444804891296</v>
+        <v>0.9988090644825015</v>
       </c>
       <c r="K3">
-        <v>1.195694495806972</v>
+        <v>0.9962845031639359</v>
       </c>
       <c r="L3">
-        <v>1.090459797445682</v>
+        <v>1.008134368941625</v>
       </c>
       <c r="M3">
-        <v>1.024702138967406</v>
+        <v>0.9978017993638946</v>
       </c>
       <c r="N3">
-        <v>1.024702138967406</v>
+        <v>0.9978017993638946</v>
       </c>
       <c r="O3">
-        <v>1.001906417369613</v>
+        <v>0.9972633305341705</v>
       </c>
       <c r="P3">
-        <v>1.081699591247261</v>
+        <v>0.9972960339639084</v>
       </c>
       <c r="Q3">
-        <v>1.081699591247261</v>
+        <v>0.9972960339639084</v>
       </c>
       <c r="R3">
-        <v>1.110198317387189</v>
+        <v>0.9970431512639153</v>
       </c>
       <c r="S3">
-        <v>1.110198317387189</v>
+        <v>0.9970431512639153</v>
       </c>
       <c r="T3">
-        <v>1.041298275787833</v>
+        <v>1.012017063038963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.425935003305045</v>
+        <v>0.8840667873860256</v>
       </c>
       <c r="D4">
-        <v>0.9926561183632608</v>
+        <v>0.8086297637918995</v>
       </c>
       <c r="E4">
-        <v>1.187189153562754</v>
+        <v>0.8086297637918995</v>
       </c>
       <c r="F4">
-        <v>1.425935003305045</v>
+        <v>1.891452413364914</v>
       </c>
       <c r="G4">
-        <v>1.036918289223419</v>
+        <v>1.891452413364914</v>
       </c>
       <c r="H4">
-        <v>0.8893813698468173</v>
+        <v>0.8630254139768738</v>
       </c>
       <c r="I4">
-        <v>1.166803114073586</v>
+        <v>0.933098027846971</v>
       </c>
       <c r="J4">
-        <v>0.9926561183632608</v>
+        <v>0.9716474003225971</v>
       </c>
       <c r="K4">
-        <v>1.425935003305045</v>
+        <v>1.891452413364914</v>
       </c>
       <c r="L4">
-        <v>1.187189153562754</v>
+        <v>0.8840667873860256</v>
       </c>
       <c r="M4">
-        <v>1.089922635963008</v>
+        <v>0.8463482755889626</v>
       </c>
       <c r="N4">
-        <v>1.089922635963008</v>
+        <v>0.8463482755889626</v>
       </c>
       <c r="O4">
-        <v>1.023075547257611</v>
+        <v>0.8519073217182663</v>
       </c>
       <c r="P4">
-        <v>1.201926758410353</v>
+        <v>1.19471632151428</v>
       </c>
       <c r="Q4">
-        <v>1.201926758410353</v>
+        <v>1.19471632151428</v>
       </c>
       <c r="R4">
-        <v>1.257928819634026</v>
+        <v>1.368900344476938</v>
       </c>
       <c r="S4">
-        <v>1.257928819634026</v>
+        <v>1.368900344476938</v>
       </c>
       <c r="T4">
-        <v>1.11648050806248</v>
+        <v>1.05865330111488</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.089406385016801</v>
+        <v>1.044529099493631</v>
       </c>
       <c r="D5">
-        <v>1.311130979447453</v>
+        <v>0.7778852317840375</v>
       </c>
       <c r="E5">
-        <v>1.365623119205356</v>
+        <v>0.7778852317840375</v>
       </c>
       <c r="F5">
-        <v>2.089406385016801</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="G5">
-        <v>1.3746283920511</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="H5">
-        <v>1.066396353861251</v>
+        <v>0.7582973271237857</v>
       </c>
       <c r="I5">
-        <v>1.558036478120017</v>
+        <v>4.293263378292326</v>
       </c>
       <c r="J5">
-        <v>1.311130979447453</v>
+        <v>0.9685679162268007</v>
       </c>
       <c r="K5">
-        <v>2.089406385016801</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="L5">
-        <v>1.365623119205356</v>
+        <v>1.044529099493631</v>
       </c>
       <c r="M5">
-        <v>1.338377049326405</v>
+        <v>0.9112071656388342</v>
       </c>
       <c r="N5">
-        <v>1.338377049326405</v>
+        <v>0.9112071656388342</v>
       </c>
       <c r="O5">
-        <v>1.247716817504687</v>
+        <v>0.8602372194671514</v>
       </c>
       <c r="P5">
-        <v>1.588720161223203</v>
+        <v>0.9342337319183714</v>
       </c>
       <c r="Q5">
-        <v>1.588720161223203</v>
+        <v>0.9342337319183714</v>
       </c>
       <c r="R5">
-        <v>1.713891717171603</v>
+        <v>0.9457470150581401</v>
       </c>
       <c r="S5">
-        <v>1.713891717171603</v>
+        <v>0.9457470150581401</v>
       </c>
       <c r="T5">
-        <v>1.460870284616997</v>
+        <v>1.470471636233005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.614233723524627</v>
+        <v>0.5101021293878658</v>
       </c>
       <c r="D6">
-        <v>0.4596626374693588</v>
+        <v>0.3941785473698862</v>
       </c>
       <c r="E6">
-        <v>3.371933643735313</v>
+        <v>0.3941785473698862</v>
       </c>
       <c r="F6">
-        <v>3.614233723524627</v>
+        <v>0.4373357528983553</v>
       </c>
       <c r="G6">
-        <v>1.5494007622245</v>
+        <v>0.4373357528983553</v>
       </c>
       <c r="H6">
-        <v>0.6652926147446658</v>
+        <v>0.4052226872482287</v>
       </c>
       <c r="I6">
-        <v>1.186095416756794</v>
+        <v>24.38632783153905</v>
       </c>
       <c r="J6">
-        <v>0.4596626374693588</v>
+        <v>0.4773246116793712</v>
       </c>
       <c r="K6">
-        <v>3.614233723524627</v>
+        <v>0.4373357528983553</v>
       </c>
       <c r="L6">
-        <v>3.371933643735313</v>
+        <v>0.5101021293878658</v>
       </c>
       <c r="M6">
-        <v>1.915798140602336</v>
+        <v>0.452140338378876</v>
       </c>
       <c r="N6">
-        <v>1.915798140602336</v>
+        <v>0.452140338378876</v>
       </c>
       <c r="O6">
-        <v>1.498962965316446</v>
+        <v>0.4365011213353269</v>
       </c>
       <c r="P6">
-        <v>2.481943334909766</v>
+        <v>0.4472054765520357</v>
       </c>
       <c r="Q6">
-        <v>2.481943334909766</v>
+        <v>0.4472054765520357</v>
       </c>
       <c r="R6">
-        <v>2.765015932063482</v>
+        <v>0.4447380456386156</v>
       </c>
       <c r="S6">
-        <v>2.765015932063482</v>
+        <v>0.4447380456386156</v>
       </c>
       <c r="T6">
-        <v>1.807769799742543</v>
+        <v>4.435081926687126</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9983322146650468</v>
+        <v>1.081770562969901</v>
       </c>
       <c r="D7">
-        <v>0.9981985436818351</v>
+        <v>0.9535662553865667</v>
       </c>
       <c r="E7">
-        <v>1.00070478033251</v>
+        <v>0.9535662553865667</v>
       </c>
       <c r="F7">
-        <v>0.9983322146650468</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="G7">
-        <v>1.038183792748109</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="H7">
-        <v>0.9985018298033767</v>
+        <v>0.9521094646260612</v>
       </c>
       <c r="I7">
-        <v>0.9989693591038422</v>
+        <v>0.9752708429192354</v>
       </c>
       <c r="J7">
-        <v>0.9981985436818351</v>
+        <v>1.068697454826213</v>
       </c>
       <c r="K7">
-        <v>0.9983322146650468</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="L7">
-        <v>1.00070478033251</v>
+        <v>1.081770562969901</v>
       </c>
       <c r="M7">
-        <v>0.9994516620071727</v>
+        <v>1.017668409178234</v>
       </c>
       <c r="N7">
-        <v>0.9994516620071727</v>
+        <v>1.017668409178234</v>
       </c>
       <c r="O7">
-        <v>0.9991350512725741</v>
+        <v>0.9958154276608431</v>
       </c>
       <c r="P7">
-        <v>0.9990785128931309</v>
+        <v>1.076866383741353</v>
       </c>
       <c r="Q7">
-        <v>0.9990785128931309</v>
+        <v>1.076866383741353</v>
       </c>
       <c r="R7">
-        <v>0.9988919383361099</v>
+        <v>1.106465371022913</v>
       </c>
       <c r="S7">
-        <v>0.9988919383361099</v>
+        <v>1.106465371022913</v>
       </c>
       <c r="T7">
-        <v>1.00548175338912</v>
+        <v>1.037779485599262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9962845031639352</v>
+        <v>1.028968515598282</v>
       </c>
       <c r="D8">
-        <v>0.9874692297861649</v>
+        <v>1.023588681706443</v>
       </c>
       <c r="E8">
-        <v>1.008134368941626</v>
+        <v>1.023588681706443</v>
       </c>
       <c r="F8">
-        <v>0.9962845031639352</v>
+        <v>0.8986392809310543</v>
       </c>
       <c r="G8">
-        <v>1.085218818984822</v>
+        <v>0.8986392809310543</v>
       </c>
       <c r="H8">
-        <v>0.9961863928747232</v>
+        <v>0.9954442626852554</v>
       </c>
       <c r="I8">
-        <v>0.9988090644825016</v>
+        <v>1.043588727727399</v>
       </c>
       <c r="J8">
-        <v>0.9874692297861649</v>
+        <v>1.006814243809744</v>
       </c>
       <c r="K8">
-        <v>0.9962845031639352</v>
+        <v>0.8986392809310543</v>
       </c>
       <c r="L8">
-        <v>1.008134368941626</v>
+        <v>1.028968515598282</v>
       </c>
       <c r="M8">
-        <v>0.9978017993638956</v>
+        <v>1.026278598652362</v>
       </c>
       <c r="N8">
-        <v>0.9978017993638956</v>
+        <v>1.026278598652362</v>
       </c>
       <c r="O8">
-        <v>0.9972633305341715</v>
+        <v>1.016000486663327</v>
       </c>
       <c r="P8">
-        <v>0.9972960339639089</v>
+        <v>0.9837321594119263</v>
       </c>
       <c r="Q8">
-        <v>0.9972960339639089</v>
+        <v>0.9837321594119265</v>
       </c>
       <c r="R8">
-        <v>0.9970431512639154</v>
+        <v>0.9624589397917084</v>
       </c>
       <c r="S8">
-        <v>0.9970431512639154</v>
+        <v>0.9624589397917084</v>
       </c>
       <c r="T8">
-        <v>1.012017063038962</v>
+        <v>0.9995072854096961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.035905172722504</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="D9">
-        <v>0.9922658520744719</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="E9">
-        <v>1.038991344385248</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="F9">
-        <v>1.035905172722504</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="G9">
-        <v>1.089931895171772</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="H9">
-        <v>0.9919179221938944</v>
+        <v>0.8893813698468173</v>
       </c>
       <c r="I9">
-        <v>0.9935079900811358</v>
+        <v>1.036918289223419</v>
       </c>
       <c r="J9">
-        <v>0.9922658520744719</v>
+        <v>1.166803114073586</v>
       </c>
       <c r="K9">
-        <v>1.035905172722504</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="L9">
-        <v>1.038991344385248</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="M9">
-        <v>1.01562859822986</v>
+        <v>1.089922635963008</v>
       </c>
       <c r="N9">
-        <v>1.01562859822986</v>
+        <v>1.089922635963008</v>
       </c>
       <c r="O9">
-        <v>1.007725039551205</v>
+        <v>1.023075547257611</v>
       </c>
       <c r="P9">
-        <v>1.022387456394074</v>
+        <v>1.201926758410353</v>
       </c>
       <c r="Q9">
-        <v>1.022387456394075</v>
+        <v>1.201926758410353</v>
       </c>
       <c r="R9">
-        <v>1.025766885476182</v>
+        <v>1.257928819634026</v>
       </c>
       <c r="S9">
-        <v>1.025766885476182</v>
+        <v>1.257928819634026</v>
       </c>
       <c r="T9">
-        <v>1.023753362771504</v>
+        <v>1.11648050806248</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.020264112909525</v>
+        <v>0.4687951323330179</v>
       </c>
       <c r="D10">
-        <v>0.9827367904557793</v>
+        <v>0.5131736293594477</v>
       </c>
       <c r="E10">
-        <v>1.042868792650362</v>
+        <v>0.5131736293594477</v>
       </c>
       <c r="F10">
-        <v>1.020264112909525</v>
+        <v>0.4158186291731588</v>
       </c>
       <c r="G10">
-        <v>1.245704369071664</v>
+        <v>0.4158186291731588</v>
       </c>
       <c r="H10">
-        <v>0.9857095887742542</v>
+        <v>0.3593355396541261</v>
       </c>
       <c r="I10">
-        <v>1.001763040706066</v>
+        <v>24.80948701685619</v>
       </c>
       <c r="J10">
-        <v>0.9827367904557793</v>
+        <v>0.4665504570366799</v>
       </c>
       <c r="K10">
-        <v>1.020264112909525</v>
+        <v>0.4158186291731588</v>
       </c>
       <c r="L10">
-        <v>1.042868792650362</v>
+        <v>0.4687951323330179</v>
       </c>
       <c r="M10">
-        <v>1.012802791553071</v>
+        <v>0.4909843808462328</v>
       </c>
       <c r="N10">
-        <v>1.012802791553071</v>
+        <v>0.4909843808462328</v>
       </c>
       <c r="O10">
-        <v>1.003771723960132</v>
+        <v>0.4471014337821972</v>
       </c>
       <c r="P10">
-        <v>1.015289898671889</v>
+        <v>0.4659291302885415</v>
       </c>
       <c r="Q10">
-        <v>1.015289898671889</v>
+        <v>0.4659291302885415</v>
       </c>
       <c r="R10">
-        <v>1.016533452231298</v>
+        <v>0.4534015050096958</v>
       </c>
       <c r="S10">
-        <v>1.016533452231298</v>
+        <v>0.4534015050096958</v>
       </c>
       <c r="T10">
-        <v>1.046507782427942</v>
+        <v>4.505526734068769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.121417939059363</v>
+        <v>0.8156180639210705</v>
       </c>
       <c r="D11">
-        <v>1.06271225156093</v>
+        <v>1.060154353992671</v>
       </c>
       <c r="E11">
-        <v>1.190648929091592</v>
+        <v>1.060154353992671</v>
       </c>
       <c r="F11">
-        <v>1.121417939059363</v>
+        <v>1.842711796450164</v>
       </c>
       <c r="G11">
-        <v>1.300979289134874</v>
+        <v>1.842711796450164</v>
       </c>
       <c r="H11">
-        <v>1.017071820501635</v>
+        <v>0.9351783378329415</v>
       </c>
       <c r="I11">
-        <v>0.9400930473708152</v>
+        <v>1.040294988388148</v>
       </c>
       <c r="J11">
-        <v>1.06271225156093</v>
+        <v>0.899798945790095</v>
       </c>
       <c r="K11">
-        <v>1.121417939059363</v>
+        <v>1.842711796450164</v>
       </c>
       <c r="L11">
-        <v>1.190648929091592</v>
+        <v>0.8156180639210705</v>
       </c>
       <c r="M11">
-        <v>1.126680590326261</v>
+        <v>0.9378862089568709</v>
       </c>
       <c r="N11">
-        <v>1.126680590326261</v>
+        <v>0.9378862089568709</v>
       </c>
       <c r="O11">
-        <v>1.090144333718052</v>
+        <v>0.9369835852488944</v>
       </c>
       <c r="P11">
-        <v>1.124926373237295</v>
+        <v>1.239494738121302</v>
       </c>
       <c r="Q11">
-        <v>1.124926373237295</v>
+        <v>1.239494738121302</v>
       </c>
       <c r="R11">
-        <v>1.124049264692812</v>
+        <v>1.390299002703518</v>
       </c>
       <c r="S11">
-        <v>1.124049264692812</v>
+        <v>1.390299002703518</v>
       </c>
       <c r="T11">
-        <v>1.105487212786535</v>
+        <v>1.098959414395848</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.839099416743353</v>
+        <v>0.9690302955545643</v>
       </c>
       <c r="D12">
-        <v>0.2731877001756437</v>
+        <v>1.10858716510821</v>
       </c>
       <c r="E12">
-        <v>0.5353173396279415</v>
+        <v>1.10858716510821</v>
       </c>
       <c r="F12">
-        <v>1.839099416743353</v>
+        <v>0.7924229677633223</v>
       </c>
       <c r="G12">
-        <v>0.001005896292277911</v>
+        <v>0.7924229677633223</v>
       </c>
       <c r="H12">
-        <v>1.28050112250611</v>
+        <v>0.670501355201496</v>
       </c>
       <c r="I12">
-        <v>1.076101711066956</v>
+        <v>5.545783250667502</v>
       </c>
       <c r="J12">
-        <v>0.2731877001756437</v>
+        <v>0.8663474969016852</v>
       </c>
       <c r="K12">
-        <v>1.839099416743353</v>
+        <v>0.7924229677633223</v>
       </c>
       <c r="L12">
-        <v>0.5353173396279415</v>
+        <v>0.9690302955545643</v>
       </c>
       <c r="M12">
-        <v>0.4042525199017926</v>
+        <v>1.038808730331387</v>
       </c>
       <c r="N12">
-        <v>0.4042525199017926</v>
+        <v>1.038808730331387</v>
       </c>
       <c r="O12">
-        <v>0.696335387436565</v>
+        <v>0.9160396052880903</v>
       </c>
       <c r="P12">
-        <v>0.8825348188489794</v>
+        <v>0.956680142808699</v>
       </c>
       <c r="Q12">
-        <v>0.8825348188489793</v>
+        <v>0.956680142808699</v>
       </c>
       <c r="R12">
-        <v>1.121675968322573</v>
+        <v>0.9156158490473547</v>
       </c>
       <c r="S12">
-        <v>1.121675968322573</v>
+        <v>0.9156158490473547</v>
       </c>
       <c r="T12">
-        <v>0.8342021977353804</v>
+        <v>1.658778755199463</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9996281589042395</v>
+        <v>0.8351927237057024</v>
       </c>
       <c r="D13">
-        <v>1.598615370252648</v>
+        <v>1.678372903941501</v>
       </c>
       <c r="E13">
-        <v>1.255728795392275</v>
+        <v>1.678372903941501</v>
       </c>
       <c r="F13">
-        <v>0.9996281589042395</v>
+        <v>1.01728161075195</v>
       </c>
       <c r="G13">
-        <v>0.415835481064135</v>
+        <v>1.01728161075195</v>
       </c>
       <c r="H13">
-        <v>0.6970805916650492</v>
+        <v>1.021635567048768</v>
       </c>
       <c r="I13">
-        <v>1.063608608492982</v>
+        <v>0.5627965227288613</v>
       </c>
       <c r="J13">
-        <v>1.598615370252648</v>
+        <v>0.9726220859094149</v>
       </c>
       <c r="K13">
-        <v>0.9996281589042395</v>
+        <v>1.01728161075195</v>
       </c>
       <c r="L13">
-        <v>1.255728795392275</v>
+        <v>0.8351927237057024</v>
       </c>
       <c r="M13">
-        <v>1.427172082822461</v>
+        <v>1.256782813823602</v>
       </c>
       <c r="N13">
-        <v>1.427172082822461</v>
+        <v>1.256782813823602</v>
       </c>
       <c r="O13">
-        <v>1.183808252436657</v>
+        <v>1.178400398231991</v>
       </c>
       <c r="P13">
-        <v>1.284657441516387</v>
+        <v>1.176949079466385</v>
       </c>
       <c r="Q13">
-        <v>1.284657441516387</v>
+        <v>1.176949079466385</v>
       </c>
       <c r="R13">
-        <v>1.21340012086335</v>
+        <v>1.137032212287776</v>
       </c>
       <c r="S13">
-        <v>1.21340012086335</v>
+        <v>1.137032212287776</v>
       </c>
       <c r="T13">
-        <v>1.005082834295221</v>
+        <v>1.014650235681033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.824526065424648</v>
+        <v>0.0080378142</v>
       </c>
       <c r="D14">
-        <v>0.009564223208535162</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="E14">
-        <v>0.3279806751991266</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="F14">
-        <v>1.824526065424648</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="G14">
-        <v>0.00095833269074967</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="H14">
-        <v>2.033072525764183</v>
+        <v>-0.002063599</v>
       </c>
       <c r="I14">
-        <v>1.123644033566309</v>
+        <v>45.56474799999992</v>
       </c>
       <c r="J14">
-        <v>0.009564223208535162</v>
+        <v>-0.005504551799999996</v>
       </c>
       <c r="K14">
-        <v>1.824526065424648</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="L14">
-        <v>0.3279806751991266</v>
+        <v>0.0080378142</v>
       </c>
       <c r="M14">
-        <v>0.1687724492038309</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="N14">
-        <v>0.1687724492038309</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="O14">
-        <v>0.7902058080572815</v>
+        <v>0.004070094366666664</v>
       </c>
       <c r="P14">
-        <v>0.7206903212774368</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="Q14">
-        <v>0.7206903212774368</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="R14">
-        <v>0.9966492573142397</v>
+        <v>0.002172385125</v>
       </c>
       <c r="S14">
-        <v>0.9966492573142397</v>
+        <v>0.002172385125</v>
       </c>
       <c r="T14">
-        <v>0.8866243093089253</v>
+        <v>7.594776926749987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.3692450097986275</v>
+        <v>15.189881</v>
       </c>
       <c r="D15">
-        <v>3.037575828329734</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="E15">
-        <v>1.365474223309173</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="F15">
-        <v>0.3692450097986275</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="G15">
-        <v>0.3699524454777166</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="H15">
-        <v>0.5177535224561548</v>
+        <v>0.002121282</v>
       </c>
       <c r="I15">
-        <v>0.9633165888619177</v>
+        <v>0.008039045599999999</v>
       </c>
       <c r="J15">
-        <v>3.037575828329734</v>
+        <v>0.56694817</v>
       </c>
       <c r="K15">
-        <v>0.3692450097986275</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="L15">
-        <v>1.365474223309173</v>
+        <v>15.189881</v>
       </c>
       <c r="M15">
-        <v>2.201525025819454</v>
+        <v>7.59172344675</v>
       </c>
       <c r="N15">
-        <v>2.201525025819454</v>
+        <v>7.59172344675</v>
       </c>
       <c r="O15">
-        <v>1.640267858031687</v>
+        <v>5.061856058499999</v>
       </c>
       <c r="P15">
-        <v>1.590765020479178</v>
+        <v>5.060739265733333</v>
       </c>
       <c r="Q15">
-        <v>1.590765020479179</v>
+        <v>5.060739265733333</v>
       </c>
       <c r="R15">
-        <v>1.285385017809041</v>
+        <v>3.795247175225</v>
       </c>
       <c r="S15">
-        <v>1.285385017809041</v>
+        <v>3.795247175225</v>
       </c>
       <c r="T15">
-        <v>1.103886269705554</v>
+        <v>2.626554382466666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.040770170420817</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="D16">
-        <v>1.005819428960362</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E16">
-        <v>0.9852166044461749</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F16">
-        <v>1.040770170420817</v>
+        <v>30.381976</v>
       </c>
       <c r="G16">
-        <v>1.030950056982326</v>
+        <v>30.381976</v>
       </c>
       <c r="H16">
-        <v>1.001336815184199</v>
+        <v>0.0025420956</v>
       </c>
       <c r="I16">
-        <v>0.9830182247310965</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J16">
-        <v>1.005819428960362</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K16">
-        <v>1.040770170420817</v>
+        <v>30.381976</v>
       </c>
       <c r="L16">
-        <v>0.9852166044461749</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M16">
-        <v>0.9955180167032682</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N16">
-        <v>0.9955180167032682</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O16">
-        <v>0.9974576161969119</v>
+        <v>0.0014698222</v>
       </c>
       <c r="P16">
-        <v>1.010602067942451</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q16">
-        <v>1.010602067942451</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R16">
-        <v>1.018144093562042</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S16">
-        <v>1.018144093562042</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T16">
-        <v>1.007851883454162</v>
+        <v>5.064556055483332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8986392809310526</v>
+        <v>1.1185846</v>
       </c>
       <c r="D17">
-        <v>1.023588681706442</v>
+        <v>0.003165176899999999</v>
       </c>
       <c r="E17">
-        <v>1.028968515598283</v>
+        <v>0.003165176899999999</v>
       </c>
       <c r="F17">
-        <v>0.8986392809310526</v>
+        <v>-0.0014782426</v>
       </c>
       <c r="G17">
-        <v>1.043588727727399</v>
+        <v>-0.0014782426</v>
       </c>
       <c r="H17">
-        <v>0.9954442626852542</v>
+        <v>0.011519388</v>
       </c>
       <c r="I17">
-        <v>1.006814243809743</v>
+        <v>-0.0057362253</v>
       </c>
       <c r="J17">
-        <v>1.023588681706442</v>
+        <v>0.05500227199999999</v>
       </c>
       <c r="K17">
-        <v>0.8986392809310526</v>
+        <v>-0.0014782426</v>
       </c>
       <c r="L17">
-        <v>1.028968515598283</v>
+        <v>1.1185846</v>
       </c>
       <c r="M17">
-        <v>1.026278598652362</v>
+        <v>0.56087488845</v>
       </c>
       <c r="N17">
-        <v>1.026278598652362</v>
+        <v>0.56087488845</v>
       </c>
       <c r="O17">
-        <v>1.016000486663326</v>
+        <v>0.3777563883</v>
       </c>
       <c r="P17">
-        <v>0.9837321594119258</v>
+        <v>0.3734238447666667</v>
       </c>
       <c r="Q17">
-        <v>0.9837321594119258</v>
+        <v>0.3734238447666667</v>
       </c>
       <c r="R17">
-        <v>0.9624589397917076</v>
+        <v>0.279698322925</v>
       </c>
       <c r="S17">
-        <v>0.9624589397917076</v>
+        <v>0.279698322925</v>
       </c>
       <c r="T17">
-        <v>0.9995072854096957</v>
+        <v>0.1968428281666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.132095149278218</v>
+        <v>2.866815715448219</v>
       </c>
       <c r="D18">
-        <v>1.013992582930869</v>
+        <v>-0.001348055636986302</v>
       </c>
       <c r="E18">
-        <v>1.129856857140445</v>
+        <v>-0.001348055636986302</v>
       </c>
       <c r="F18">
-        <v>1.132095149278218</v>
+        <v>5.319488004905479</v>
       </c>
       <c r="G18">
-        <v>1.105703021968856</v>
+        <v>5.319488004905479</v>
       </c>
       <c r="H18">
-        <v>1.005417117628825</v>
+        <v>-0.0003479084849315068</v>
       </c>
       <c r="I18">
-        <v>0.8755126018880912</v>
+        <v>0.001346627909589041</v>
       </c>
       <c r="J18">
-        <v>1.013992582930869</v>
+        <v>2.66879592160548</v>
       </c>
       <c r="K18">
-        <v>1.132095149278218</v>
+        <v>5.319488004905479</v>
       </c>
       <c r="L18">
-        <v>1.129856857140445</v>
+        <v>2.866815715448219</v>
       </c>
       <c r="M18">
-        <v>1.071924720035657</v>
+        <v>1.432733829905616</v>
       </c>
       <c r="N18">
-        <v>1.071924720035657</v>
+        <v>1.432733829905616</v>
       </c>
       <c r="O18">
-        <v>1.04975551923338</v>
+        <v>0.9550399171087672</v>
       </c>
       <c r="P18">
-        <v>1.091981529783177</v>
+        <v>2.728318554905571</v>
       </c>
       <c r="Q18">
-        <v>1.091981529783177</v>
+        <v>2.728318554905571</v>
       </c>
       <c r="R18">
-        <v>1.102009934656937</v>
+        <v>3.376110917405548</v>
       </c>
       <c r="S18">
-        <v>1.102009934656937</v>
+        <v>3.376110917405548</v>
       </c>
       <c r="T18">
-        <v>1.043762888472551</v>
+        <v>1.809125050957808</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.581520835163285</v>
+        <v>0.2667974827382105</v>
       </c>
       <c r="D19">
-        <v>0.7911919769185698</v>
+        <v>0.001263986031999999</v>
       </c>
       <c r="E19">
-        <v>0.804012626153218</v>
+        <v>0.001263986031999999</v>
       </c>
       <c r="F19">
-        <v>1.581520835163285</v>
+        <v>2.504722204034894</v>
       </c>
       <c r="G19">
-        <v>0.9692268336270797</v>
+        <v>2.504722204034894</v>
       </c>
       <c r="H19">
-        <v>1.110890079203579</v>
+        <v>0.3741772924495264</v>
       </c>
       <c r="I19">
-        <v>1.020486115468406</v>
+        <v>3.752783920057364</v>
       </c>
       <c r="J19">
-        <v>0.7911919769185698</v>
+        <v>1.148879533968421</v>
       </c>
       <c r="K19">
-        <v>1.581520835163285</v>
+        <v>2.504722204034894</v>
       </c>
       <c r="L19">
-        <v>0.804012626153218</v>
+        <v>0.2667974827382105</v>
       </c>
       <c r="M19">
-        <v>0.797602301535894</v>
+        <v>0.1340307343851053</v>
       </c>
       <c r="N19">
-        <v>0.797602301535894</v>
+        <v>0.1340307343851053</v>
       </c>
       <c r="O19">
-        <v>0.9020315607584557</v>
+        <v>0.2140795870732456</v>
       </c>
       <c r="P19">
-        <v>1.058908479411691</v>
+        <v>0.9242612242683683</v>
       </c>
       <c r="Q19">
-        <v>1.058908479411691</v>
+        <v>0.9242612242683683</v>
       </c>
       <c r="R19">
-        <v>1.189561568349589</v>
+        <v>1.31937646921</v>
       </c>
       <c r="S19">
-        <v>1.189561568349589</v>
+        <v>1.31937646921</v>
       </c>
       <c r="T19">
-        <v>1.046221411089023</v>
+        <v>1.341437403213403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.105215038871263</v>
+      </c>
+      <c r="D20">
+        <v>3.406934148036842</v>
+      </c>
+      <c r="E20">
+        <v>3.406934148036842</v>
+      </c>
+      <c r="F20">
+        <v>1.704390385821579</v>
+      </c>
+      <c r="G20">
+        <v>1.704390385821579</v>
+      </c>
+      <c r="H20">
+        <v>0.03203716434815789</v>
+      </c>
+      <c r="I20">
+        <v>6.308808287847365</v>
+      </c>
+      <c r="J20">
+        <v>0.1417101757157894</v>
+      </c>
+      <c r="K20">
+        <v>1.704390385821579</v>
+      </c>
+      <c r="L20">
+        <v>2.105215038871263</v>
+      </c>
+      <c r="M20">
+        <v>2.756074593454052</v>
+      </c>
+      <c r="N20">
+        <v>2.756074593454052</v>
+      </c>
+      <c r="O20">
+        <v>1.848062117085421</v>
+      </c>
+      <c r="P20">
+        <v>2.405513190909895</v>
+      </c>
+      <c r="Q20">
+        <v>2.405513190909895</v>
+      </c>
+      <c r="R20">
+        <v>2.230232489637816</v>
+      </c>
+      <c r="S20">
+        <v>2.230232489637816</v>
+      </c>
+      <c r="T20">
+        <v>2.283182533440166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.3279806751991264</v>
+      </c>
+      <c r="D21">
+        <v>0.009564223208535151</v>
+      </c>
+      <c r="E21">
+        <v>0.009564223208535151</v>
+      </c>
+      <c r="F21">
+        <v>1.824526065424647</v>
+      </c>
+      <c r="G21">
+        <v>1.824526065424647</v>
+      </c>
+      <c r="H21">
+        <v>2.033072525764183</v>
+      </c>
+      <c r="I21">
+        <v>0.0009583326907496712</v>
+      </c>
+      <c r="J21">
+        <v>1.123644033566309</v>
+      </c>
+      <c r="K21">
+        <v>1.824526065424647</v>
+      </c>
+      <c r="L21">
+        <v>0.3279806751991264</v>
+      </c>
+      <c r="M21">
+        <v>0.1687724492038308</v>
+      </c>
+      <c r="N21">
+        <v>0.1687724492038308</v>
+      </c>
+      <c r="O21">
+        <v>0.7902058080572815</v>
+      </c>
+      <c r="P21">
+        <v>0.7206903212774362</v>
+      </c>
+      <c r="Q21">
+        <v>0.7206903212774362</v>
+      </c>
+      <c r="R21">
+        <v>0.9966492573142389</v>
+      </c>
+      <c r="S21">
+        <v>0.9966492573142389</v>
+      </c>
+      <c r="T21">
+        <v>0.886624309308925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.365474223309173</v>
+      </c>
+      <c r="D22">
+        <v>3.037575828329734</v>
+      </c>
+      <c r="E22">
+        <v>3.037575828329734</v>
+      </c>
+      <c r="F22">
+        <v>0.3692450097986277</v>
+      </c>
+      <c r="G22">
+        <v>0.3692450097986277</v>
+      </c>
+      <c r="H22">
+        <v>0.5177535224561548</v>
+      </c>
+      <c r="I22">
+        <v>0.3699524454777166</v>
+      </c>
+      <c r="J22">
+        <v>0.9633165888619176</v>
+      </c>
+      <c r="K22">
+        <v>0.3692450097986277</v>
+      </c>
+      <c r="L22">
+        <v>1.365474223309173</v>
+      </c>
+      <c r="M22">
+        <v>2.201525025819454</v>
+      </c>
+      <c r="N22">
+        <v>2.201525025819454</v>
+      </c>
+      <c r="O22">
+        <v>1.640267858031687</v>
+      </c>
+      <c r="P22">
+        <v>1.590765020479179</v>
+      </c>
+      <c r="Q22">
+        <v>1.590765020479179</v>
+      </c>
+      <c r="R22">
+        <v>1.285385017809041</v>
+      </c>
+      <c r="S22">
+        <v>1.285385017809041</v>
+      </c>
+      <c r="T22">
+        <v>1.103886269705554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.5353173396279407</v>
+      </c>
+      <c r="D23">
+        <v>0.2731877001756435</v>
+      </c>
+      <c r="E23">
+        <v>0.2731877001756435</v>
+      </c>
+      <c r="F23">
+        <v>1.839099416743353</v>
+      </c>
+      <c r="G23">
+        <v>1.839099416743353</v>
+      </c>
+      <c r="H23">
+        <v>1.28050112250611</v>
+      </c>
+      <c r="I23">
+        <v>0.001005896292277912</v>
+      </c>
+      <c r="J23">
+        <v>1.076101711066956</v>
+      </c>
+      <c r="K23">
+        <v>1.839099416743353</v>
+      </c>
+      <c r="L23">
+        <v>0.5353173396279407</v>
+      </c>
+      <c r="M23">
+        <v>0.4042525199017921</v>
+      </c>
+      <c r="N23">
+        <v>0.4042525199017921</v>
+      </c>
+      <c r="O23">
+        <v>0.6963353874365646</v>
+      </c>
+      <c r="P23">
+        <v>0.8825348188489791</v>
+      </c>
+      <c r="Q23">
+        <v>0.8825348188489791</v>
+      </c>
+      <c r="R23">
+        <v>1.121675968322573</v>
+      </c>
+      <c r="S23">
+        <v>1.121675968322573</v>
+      </c>
+      <c r="T23">
+        <v>0.8342021977353801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.255728795392275</v>
+      </c>
+      <c r="D24">
+        <v>1.598615370252646</v>
+      </c>
+      <c r="E24">
+        <v>1.598615370252646</v>
+      </c>
+      <c r="F24">
+        <v>0.9996281589042396</v>
+      </c>
+      <c r="G24">
+        <v>0.9996281589042396</v>
+      </c>
+      <c r="H24">
+        <v>0.6970805916650487</v>
+      </c>
+      <c r="I24">
+        <v>0.4158354810641348</v>
+      </c>
+      <c r="J24">
+        <v>1.063608608492982</v>
+      </c>
+      <c r="K24">
+        <v>0.9996281589042396</v>
+      </c>
+      <c r="L24">
+        <v>1.255728795392275</v>
+      </c>
+      <c r="M24">
+        <v>1.427172082822461</v>
+      </c>
+      <c r="N24">
+        <v>1.427172082822461</v>
+      </c>
+      <c r="O24">
+        <v>1.183808252436657</v>
+      </c>
+      <c r="P24">
+        <v>1.284657441516387</v>
+      </c>
+      <c r="Q24">
+        <v>1.284657441516387</v>
+      </c>
+      <c r="R24">
+        <v>1.21340012086335</v>
+      </c>
+      <c r="S24">
+        <v>1.21340012086335</v>
+      </c>
+      <c r="T24">
+        <v>1.005082834295221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.6840436776613265</v>
+      </c>
+      <c r="D25">
+        <v>0.9200804871536474</v>
+      </c>
+      <c r="E25">
+        <v>0.9200804871536474</v>
+      </c>
+      <c r="F25">
+        <v>0.3628513711394295</v>
+      </c>
+      <c r="G25">
+        <v>0.3628513711394295</v>
+      </c>
+      <c r="H25">
+        <v>1.655224724001139</v>
+      </c>
+      <c r="I25">
+        <v>0.0007741736952879507</v>
+      </c>
+      <c r="J25">
+        <v>0.7786431169962688</v>
+      </c>
+      <c r="K25">
+        <v>0.3628513711394295</v>
+      </c>
+      <c r="L25">
+        <v>0.6840436776613265</v>
+      </c>
+      <c r="M25">
+        <v>0.8020620824074869</v>
+      </c>
+      <c r="N25">
+        <v>0.8020620824074869</v>
+      </c>
+      <c r="O25">
+        <v>1.086449629605371</v>
+      </c>
+      <c r="P25">
+        <v>0.6556585119848011</v>
+      </c>
+      <c r="Q25">
+        <v>0.6556585119848011</v>
+      </c>
+      <c r="R25">
+        <v>0.5824567267734582</v>
+      </c>
+      <c r="S25">
+        <v>0.5824567267734582</v>
+      </c>
+      <c r="T25">
+        <v>0.7336029251078497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.219085589634244</v>
+      </c>
+      <c r="D26">
+        <v>0.9183225674123235</v>
+      </c>
+      <c r="E26">
+        <v>0.9183225674123235</v>
+      </c>
+      <c r="F26">
+        <v>0.3944422404019887</v>
+      </c>
+      <c r="G26">
+        <v>0.3944422404019887</v>
+      </c>
+      <c r="H26">
+        <v>1.105831862761006</v>
+      </c>
+      <c r="I26">
+        <v>0.4993208193803643</v>
+      </c>
+      <c r="J26">
+        <v>0.6052202324906033</v>
+      </c>
+      <c r="K26">
+        <v>0.3944422404019887</v>
+      </c>
+      <c r="L26">
+        <v>1.219085589634244</v>
+      </c>
+      <c r="M26">
+        <v>1.068704078523284</v>
+      </c>
+      <c r="N26">
+        <v>1.068704078523284</v>
+      </c>
+      <c r="O26">
+        <v>1.081080006602524</v>
+      </c>
+      <c r="P26">
+        <v>0.8439501324828521</v>
+      </c>
+      <c r="Q26">
+        <v>0.8439501324828521</v>
+      </c>
+      <c r="R26">
+        <v>0.7315731594626362</v>
+      </c>
+      <c r="S26">
+        <v>0.7315731594626362</v>
+      </c>
+      <c r="T26">
+        <v>0.7903705520134215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.2736435447542511</v>
+      </c>
+      <c r="D27">
+        <v>0.006185247811692524</v>
+      </c>
+      <c r="E27">
+        <v>0.006185247811692524</v>
+      </c>
+      <c r="F27">
+        <v>1.234476484103664</v>
+      </c>
+      <c r="G27">
+        <v>1.234476484103664</v>
+      </c>
+      <c r="H27">
+        <v>1.684837296811535</v>
+      </c>
+      <c r="I27">
+        <v>5.329757293588385</v>
+      </c>
+      <c r="J27">
+        <v>0.649220902073655</v>
+      </c>
+      <c r="K27">
+        <v>1.234476484103664</v>
+      </c>
+      <c r="L27">
+        <v>0.2736435447542511</v>
+      </c>
+      <c r="M27">
+        <v>0.1399143962829718</v>
+      </c>
+      <c r="N27">
+        <v>0.1399143962829718</v>
+      </c>
+      <c r="O27">
+        <v>0.6548886964591597</v>
+      </c>
+      <c r="P27">
+        <v>0.5047684255565358</v>
+      </c>
+      <c r="Q27">
+        <v>0.5047684255565359</v>
+      </c>
+      <c r="R27">
+        <v>0.6871954401933179</v>
+      </c>
+      <c r="S27">
+        <v>0.6871954401933179</v>
+      </c>
+      <c r="T27">
+        <v>1.529686794857197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1429945048897298</v>
+      </c>
+      <c r="D28">
+        <v>1.393167664550069</v>
+      </c>
+      <c r="E28">
+        <v>1.393167664550069</v>
+      </c>
+      <c r="F28">
+        <v>2.097950431515033</v>
+      </c>
+      <c r="G28">
+        <v>2.097950431515033</v>
+      </c>
+      <c r="H28">
+        <v>0.06195448557607755</v>
+      </c>
+      <c r="I28">
+        <v>1.454077748140057</v>
+      </c>
+      <c r="J28">
+        <v>0.4047026339123727</v>
+      </c>
+      <c r="K28">
+        <v>2.097950431515033</v>
+      </c>
+      <c r="L28">
+        <v>0.1429945048897298</v>
+      </c>
+      <c r="M28">
+        <v>0.7680810847198994</v>
+      </c>
+      <c r="N28">
+        <v>0.7680810847198994</v>
+      </c>
+      <c r="O28">
+        <v>0.5327055516719589</v>
+      </c>
+      <c r="P28">
+        <v>1.211370866984944</v>
+      </c>
+      <c r="Q28">
+        <v>1.211370866984944</v>
+      </c>
+      <c r="R28">
+        <v>1.433015758117466</v>
+      </c>
+      <c r="S28">
+        <v>1.433015758117466</v>
+      </c>
+      <c r="T28">
+        <v>0.9258079114305565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.3168520110703535</v>
+      </c>
+      <c r="D29">
+        <v>0.004659716106946445</v>
+      </c>
+      <c r="E29">
+        <v>0.004659716106946445</v>
+      </c>
+      <c r="F29">
+        <v>3.813072930177159</v>
+      </c>
+      <c r="G29">
+        <v>3.813072930177159</v>
+      </c>
+      <c r="H29">
+        <v>0.09956031504369223</v>
+      </c>
+      <c r="I29">
+        <v>-0.001530820210306131</v>
+      </c>
+      <c r="J29">
+        <v>0.04351720067976599</v>
+      </c>
+      <c r="K29">
+        <v>3.813072930177159</v>
+      </c>
+      <c r="L29">
+        <v>0.3168520110703535</v>
+      </c>
+      <c r="M29">
+        <v>0.16075586358865</v>
+      </c>
+      <c r="N29">
+        <v>0.16075586358865</v>
+      </c>
+      <c r="O29">
+        <v>0.1403573474069974</v>
+      </c>
+      <c r="P29">
+        <v>1.37819488578482</v>
+      </c>
+      <c r="Q29">
+        <v>1.37819488578482</v>
+      </c>
+      <c r="R29">
+        <v>1.986914396882904</v>
+      </c>
+      <c r="S29">
+        <v>1.986914396882904</v>
+      </c>
+      <c r="T29">
+        <v>0.7126885588112685</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8840667873860256</v>
+        <v>0.999669715406289</v>
       </c>
       <c r="D4">
-        <v>0.8086297637918995</v>
+        <v>0.7813224481860843</v>
       </c>
       <c r="E4">
-        <v>0.8086297637918995</v>
+        <v>0.7813224481860843</v>
       </c>
       <c r="F4">
-        <v>1.891452413364914</v>
+        <v>0.9018466284670321</v>
       </c>
       <c r="G4">
-        <v>1.891452413364914</v>
+        <v>0.9018466284670321</v>
       </c>
       <c r="H4">
-        <v>0.8630254139768738</v>
+        <v>0.809922717544755</v>
       </c>
       <c r="I4">
-        <v>0.933098027846971</v>
+        <v>3.303499476935772</v>
       </c>
       <c r="J4">
-        <v>0.9716474003225971</v>
+        <v>0.9487499753379449</v>
       </c>
       <c r="K4">
-        <v>1.891452413364914</v>
+        <v>0.9018466284670321</v>
       </c>
       <c r="L4">
-        <v>0.8840667873860256</v>
+        <v>0.999669715406289</v>
       </c>
       <c r="M4">
-        <v>0.8463482755889626</v>
+        <v>0.8904960817961867</v>
       </c>
       <c r="N4">
-        <v>0.8463482755889626</v>
+        <v>0.8904960817961867</v>
       </c>
       <c r="O4">
-        <v>0.8519073217182663</v>
+        <v>0.8636382937123761</v>
       </c>
       <c r="P4">
-        <v>1.19471632151428</v>
+        <v>0.8942795973531351</v>
       </c>
       <c r="Q4">
-        <v>1.19471632151428</v>
+        <v>0.8942795973531351</v>
       </c>
       <c r="R4">
-        <v>1.368900344476938</v>
+        <v>0.8961713551316094</v>
       </c>
       <c r="S4">
-        <v>1.368900344476938</v>
+        <v>0.8961713551316094</v>
       </c>
       <c r="T4">
-        <v>1.05865330111488</v>
+        <v>1.29083516031298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.044529099493631</v>
+        <v>1.946201263933978</v>
       </c>
       <c r="D5">
-        <v>0.7778852317840375</v>
+        <v>3.769077610236998</v>
       </c>
       <c r="E5">
-        <v>0.7778852317840375</v>
+        <v>3.769077610236998</v>
       </c>
       <c r="F5">
-        <v>0.9802868644774461</v>
+        <v>1.882590041464107</v>
       </c>
       <c r="G5">
-        <v>0.9802868644774461</v>
+        <v>1.882590041464107</v>
       </c>
       <c r="H5">
-        <v>0.7582973271237857</v>
+        <v>0.03548979216606776</v>
       </c>
       <c r="I5">
-        <v>4.293263378292326</v>
+        <v>3.919570077975332</v>
       </c>
       <c r="J5">
-        <v>0.9685679162268007</v>
+        <v>0.1425334601701432</v>
       </c>
       <c r="K5">
-        <v>0.9802868644774461</v>
+        <v>1.882590041464107</v>
       </c>
       <c r="L5">
-        <v>1.044529099493631</v>
+        <v>1.946201263933978</v>
       </c>
       <c r="M5">
-        <v>0.9112071656388342</v>
+        <v>2.857639437085489</v>
       </c>
       <c r="N5">
-        <v>0.9112071656388342</v>
+        <v>2.857639437085489</v>
       </c>
       <c r="O5">
-        <v>0.8602372194671514</v>
+        <v>1.916922888779015</v>
       </c>
       <c r="P5">
-        <v>0.9342337319183714</v>
+        <v>2.532622971878361</v>
       </c>
       <c r="Q5">
-        <v>0.9342337319183714</v>
+        <v>2.532622971878361</v>
       </c>
       <c r="R5">
-        <v>0.9457470150581401</v>
+        <v>2.370114739274797</v>
       </c>
       <c r="S5">
-        <v>0.9457470150581401</v>
+        <v>2.370114739274797</v>
       </c>
       <c r="T5">
-        <v>1.470471636233005</v>
+        <v>1.949243707657771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5101021293878658</v>
+        <v>0.8840667873860256</v>
       </c>
       <c r="D6">
-        <v>0.3941785473698862</v>
+        <v>0.8086297637918995</v>
       </c>
       <c r="E6">
-        <v>0.3941785473698862</v>
+        <v>0.8086297637918995</v>
       </c>
       <c r="F6">
-        <v>0.4373357528983553</v>
+        <v>1.891452413364914</v>
       </c>
       <c r="G6">
-        <v>0.4373357528983553</v>
+        <v>1.891452413364914</v>
       </c>
       <c r="H6">
-        <v>0.4052226872482287</v>
+        <v>0.8630254139768738</v>
       </c>
       <c r="I6">
-        <v>24.38632783153905</v>
+        <v>0.933098027846971</v>
       </c>
       <c r="J6">
-        <v>0.4773246116793712</v>
+        <v>0.9716474003225971</v>
       </c>
       <c r="K6">
-        <v>0.4373357528983553</v>
+        <v>1.891452413364914</v>
       </c>
       <c r="L6">
-        <v>0.5101021293878658</v>
+        <v>0.8840667873860256</v>
       </c>
       <c r="M6">
-        <v>0.452140338378876</v>
+        <v>0.8463482755889626</v>
       </c>
       <c r="N6">
-        <v>0.452140338378876</v>
+        <v>0.8463482755889626</v>
       </c>
       <c r="O6">
-        <v>0.4365011213353269</v>
+        <v>0.8519073217182663</v>
       </c>
       <c r="P6">
-        <v>0.4472054765520357</v>
+        <v>1.19471632151428</v>
       </c>
       <c r="Q6">
-        <v>0.4472054765520357</v>
+        <v>1.19471632151428</v>
       </c>
       <c r="R6">
-        <v>0.4447380456386156</v>
+        <v>1.368900344476938</v>
       </c>
       <c r="S6">
-        <v>0.4447380456386156</v>
+        <v>1.368900344476938</v>
       </c>
       <c r="T6">
-        <v>4.435081926687126</v>
+        <v>1.05865330111488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.081770562969901</v>
+        <v>1.044529099493631</v>
       </c>
       <c r="D7">
-        <v>0.9535662553865667</v>
+        <v>0.7778852317840375</v>
       </c>
       <c r="E7">
-        <v>0.9535662553865667</v>
+        <v>0.7778852317840375</v>
       </c>
       <c r="F7">
-        <v>1.195262332867592</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="G7">
-        <v>1.195262332867592</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="H7">
-        <v>0.9521094646260612</v>
+        <v>0.7582973271237857</v>
       </c>
       <c r="I7">
-        <v>0.9752708429192354</v>
+        <v>4.293263378292326</v>
       </c>
       <c r="J7">
-        <v>1.068697454826213</v>
+        <v>0.9685679162268007</v>
       </c>
       <c r="K7">
-        <v>1.195262332867592</v>
+        <v>0.9802868644774461</v>
       </c>
       <c r="L7">
-        <v>1.081770562969901</v>
+        <v>1.044529099493631</v>
       </c>
       <c r="M7">
-        <v>1.017668409178234</v>
+        <v>0.9112071656388342</v>
       </c>
       <c r="N7">
-        <v>1.017668409178234</v>
+        <v>0.9112071656388342</v>
       </c>
       <c r="O7">
-        <v>0.9958154276608431</v>
+        <v>0.8602372194671514</v>
       </c>
       <c r="P7">
-        <v>1.076866383741353</v>
+        <v>0.9342337319183714</v>
       </c>
       <c r="Q7">
-        <v>1.076866383741353</v>
+        <v>0.9342337319183714</v>
       </c>
       <c r="R7">
-        <v>1.106465371022913</v>
+        <v>0.9457470150581401</v>
       </c>
       <c r="S7">
-        <v>1.106465371022913</v>
+        <v>0.9457470150581401</v>
       </c>
       <c r="T7">
-        <v>1.037779485599262</v>
+        <v>1.470471636233005</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.028968515598282</v>
+        <v>0.5101021293878658</v>
       </c>
       <c r="D8">
-        <v>1.023588681706443</v>
+        <v>0.3941785473698862</v>
       </c>
       <c r="E8">
-        <v>1.023588681706443</v>
+        <v>0.3941785473698862</v>
       </c>
       <c r="F8">
-        <v>0.8986392809310543</v>
+        <v>0.4373357528983553</v>
       </c>
       <c r="G8">
-        <v>0.8986392809310543</v>
+        <v>0.4373357528983553</v>
       </c>
       <c r="H8">
-        <v>0.9954442626852554</v>
+        <v>0.4052226872482287</v>
       </c>
       <c r="I8">
-        <v>1.043588727727399</v>
+        <v>24.38632783153905</v>
       </c>
       <c r="J8">
-        <v>1.006814243809744</v>
+        <v>0.4773246116793712</v>
       </c>
       <c r="K8">
-        <v>0.8986392809310543</v>
+        <v>0.4373357528983553</v>
       </c>
       <c r="L8">
-        <v>1.028968515598282</v>
+        <v>0.5101021293878658</v>
       </c>
       <c r="M8">
-        <v>1.026278598652362</v>
+        <v>0.452140338378876</v>
       </c>
       <c r="N8">
-        <v>1.026278598652362</v>
+        <v>0.452140338378876</v>
       </c>
       <c r="O8">
-        <v>1.016000486663327</v>
+        <v>0.4365011213353269</v>
       </c>
       <c r="P8">
-        <v>0.9837321594119263</v>
+        <v>0.4472054765520357</v>
       </c>
       <c r="Q8">
-        <v>0.9837321594119265</v>
+        <v>0.4472054765520357</v>
       </c>
       <c r="R8">
-        <v>0.9624589397917084</v>
+        <v>0.4447380456386156</v>
       </c>
       <c r="S8">
-        <v>0.9624589397917084</v>
+        <v>0.4447380456386156</v>
       </c>
       <c r="T8">
-        <v>0.9995072854096961</v>
+        <v>4.435081926687126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.187189153562754</v>
+        <v>1.081770562969901</v>
       </c>
       <c r="D9">
-        <v>0.9926561183632608</v>
+        <v>0.9535662553865667</v>
       </c>
       <c r="E9">
-        <v>0.9926561183632608</v>
+        <v>0.9535662553865667</v>
       </c>
       <c r="F9">
-        <v>1.425935003305045</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="G9">
-        <v>1.425935003305045</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="H9">
-        <v>0.8893813698468173</v>
+        <v>0.9521094646260612</v>
       </c>
       <c r="I9">
-        <v>1.036918289223419</v>
+        <v>0.9752708429192354</v>
       </c>
       <c r="J9">
-        <v>1.166803114073586</v>
+        <v>1.068697454826213</v>
       </c>
       <c r="K9">
-        <v>1.425935003305045</v>
+        <v>1.195262332867592</v>
       </c>
       <c r="L9">
-        <v>1.187189153562754</v>
+        <v>1.081770562969901</v>
       </c>
       <c r="M9">
-        <v>1.089922635963008</v>
+        <v>1.017668409178234</v>
       </c>
       <c r="N9">
-        <v>1.089922635963008</v>
+        <v>1.017668409178234</v>
       </c>
       <c r="O9">
-        <v>1.023075547257611</v>
+        <v>0.9958154276608431</v>
       </c>
       <c r="P9">
-        <v>1.201926758410353</v>
+        <v>1.076866383741353</v>
       </c>
       <c r="Q9">
-        <v>1.201926758410353</v>
+        <v>1.076866383741353</v>
       </c>
       <c r="R9">
-        <v>1.257928819634026</v>
+        <v>1.106465371022913</v>
       </c>
       <c r="S9">
-        <v>1.257928819634026</v>
+        <v>1.106465371022913</v>
       </c>
       <c r="T9">
-        <v>1.11648050806248</v>
+        <v>1.037779485599262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4687951323330179</v>
+        <v>1.028968515598282</v>
       </c>
       <c r="D10">
-        <v>0.5131736293594477</v>
+        <v>1.023588681706443</v>
       </c>
       <c r="E10">
-        <v>0.5131736293594477</v>
+        <v>1.023588681706443</v>
       </c>
       <c r="F10">
-        <v>0.4158186291731588</v>
+        <v>0.8986392809310543</v>
       </c>
       <c r="G10">
-        <v>0.4158186291731588</v>
+        <v>0.8986392809310543</v>
       </c>
       <c r="H10">
-        <v>0.3593355396541261</v>
+        <v>0.9954442626852554</v>
       </c>
       <c r="I10">
-        <v>24.80948701685619</v>
+        <v>1.043588727727399</v>
       </c>
       <c r="J10">
-        <v>0.4665504570366799</v>
+        <v>1.006814243809744</v>
       </c>
       <c r="K10">
-        <v>0.4158186291731588</v>
+        <v>0.8986392809310543</v>
       </c>
       <c r="L10">
-        <v>0.4687951323330179</v>
+        <v>1.028968515598282</v>
       </c>
       <c r="M10">
-        <v>0.4909843808462328</v>
+        <v>1.026278598652362</v>
       </c>
       <c r="N10">
-        <v>0.4909843808462328</v>
+        <v>1.026278598652362</v>
       </c>
       <c r="O10">
-        <v>0.4471014337821972</v>
+        <v>1.016000486663327</v>
       </c>
       <c r="P10">
-        <v>0.4659291302885415</v>
+        <v>0.9837321594119263</v>
       </c>
       <c r="Q10">
-        <v>0.4659291302885415</v>
+        <v>0.9837321594119265</v>
       </c>
       <c r="R10">
-        <v>0.4534015050096958</v>
+        <v>0.9624589397917084</v>
       </c>
       <c r="S10">
-        <v>0.4534015050096958</v>
+        <v>0.9624589397917084</v>
       </c>
       <c r="T10">
-        <v>4.505526734068769</v>
+        <v>0.9995072854096961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8156180639210705</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="D11">
-        <v>1.060154353992671</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="E11">
-        <v>1.060154353992671</v>
+        <v>0.9926561183632608</v>
       </c>
       <c r="F11">
-        <v>1.842711796450164</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="G11">
-        <v>1.842711796450164</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="H11">
-        <v>0.9351783378329415</v>
+        <v>0.8893813698468173</v>
       </c>
       <c r="I11">
-        <v>1.040294988388148</v>
+        <v>1.036918289223419</v>
       </c>
       <c r="J11">
-        <v>0.899798945790095</v>
+        <v>1.166803114073586</v>
       </c>
       <c r="K11">
-        <v>1.842711796450164</v>
+        <v>1.425935003305045</v>
       </c>
       <c r="L11">
-        <v>0.8156180639210705</v>
+        <v>1.187189153562754</v>
       </c>
       <c r="M11">
-        <v>0.9378862089568709</v>
+        <v>1.089922635963008</v>
       </c>
       <c r="N11">
-        <v>0.9378862089568709</v>
+        <v>1.089922635963008</v>
       </c>
       <c r="O11">
-        <v>0.9369835852488944</v>
+        <v>1.023075547257611</v>
       </c>
       <c r="P11">
-        <v>1.239494738121302</v>
+        <v>1.201926758410353</v>
       </c>
       <c r="Q11">
-        <v>1.239494738121302</v>
+        <v>1.201926758410353</v>
       </c>
       <c r="R11">
-        <v>1.390299002703518</v>
+        <v>1.257928819634026</v>
       </c>
       <c r="S11">
-        <v>1.390299002703518</v>
+        <v>1.257928819634026</v>
       </c>
       <c r="T11">
-        <v>1.098959414395848</v>
+        <v>1.11648050806248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9690302955545643</v>
+        <v>0.4687951323330179</v>
       </c>
       <c r="D12">
-        <v>1.10858716510821</v>
+        <v>0.5131736293594477</v>
       </c>
       <c r="E12">
-        <v>1.10858716510821</v>
+        <v>0.5131736293594477</v>
       </c>
       <c r="F12">
-        <v>0.7924229677633223</v>
+        <v>0.4158186291731588</v>
       </c>
       <c r="G12">
-        <v>0.7924229677633223</v>
+        <v>0.4158186291731588</v>
       </c>
       <c r="H12">
-        <v>0.670501355201496</v>
+        <v>0.3593355396541261</v>
       </c>
       <c r="I12">
-        <v>5.545783250667502</v>
+        <v>24.80948701685619</v>
       </c>
       <c r="J12">
-        <v>0.8663474969016852</v>
+        <v>0.4665504570366799</v>
       </c>
       <c r="K12">
-        <v>0.7924229677633223</v>
+        <v>0.4158186291731588</v>
       </c>
       <c r="L12">
-        <v>0.9690302955545643</v>
+        <v>0.4687951323330179</v>
       </c>
       <c r="M12">
-        <v>1.038808730331387</v>
+        <v>0.4909843808462328</v>
       </c>
       <c r="N12">
-        <v>1.038808730331387</v>
+        <v>0.4909843808462328</v>
       </c>
       <c r="O12">
-        <v>0.9160396052880903</v>
+        <v>0.4471014337821972</v>
       </c>
       <c r="P12">
-        <v>0.956680142808699</v>
+        <v>0.4659291302885415</v>
       </c>
       <c r="Q12">
-        <v>0.956680142808699</v>
+        <v>0.4659291302885415</v>
       </c>
       <c r="R12">
-        <v>0.9156158490473547</v>
+        <v>0.4534015050096958</v>
       </c>
       <c r="S12">
-        <v>0.9156158490473547</v>
+        <v>0.4534015050096958</v>
       </c>
       <c r="T12">
-        <v>1.658778755199463</v>
+        <v>4.505526734068769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8351927237057024</v>
+        <v>0.8156180639210705</v>
       </c>
       <c r="D13">
-        <v>1.678372903941501</v>
+        <v>1.060154353992671</v>
       </c>
       <c r="E13">
-        <v>1.678372903941501</v>
+        <v>1.060154353992671</v>
       </c>
       <c r="F13">
-        <v>1.01728161075195</v>
+        <v>1.842711796450164</v>
       </c>
       <c r="G13">
-        <v>1.01728161075195</v>
+        <v>1.842711796450164</v>
       </c>
       <c r="H13">
-        <v>1.021635567048768</v>
+        <v>0.9351783378329415</v>
       </c>
       <c r="I13">
-        <v>0.5627965227288613</v>
+        <v>1.040294988388148</v>
       </c>
       <c r="J13">
-        <v>0.9726220859094149</v>
+        <v>0.899798945790095</v>
       </c>
       <c r="K13">
-        <v>1.01728161075195</v>
+        <v>1.842711796450164</v>
       </c>
       <c r="L13">
-        <v>0.8351927237057024</v>
+        <v>0.8156180639210705</v>
       </c>
       <c r="M13">
-        <v>1.256782813823602</v>
+        <v>0.9378862089568709</v>
       </c>
       <c r="N13">
-        <v>1.256782813823602</v>
+        <v>0.9378862089568709</v>
       </c>
       <c r="O13">
-        <v>1.178400398231991</v>
+        <v>0.9369835852488944</v>
       </c>
       <c r="P13">
-        <v>1.176949079466385</v>
+        <v>1.239494738121302</v>
       </c>
       <c r="Q13">
-        <v>1.176949079466385</v>
+        <v>1.239494738121302</v>
       </c>
       <c r="R13">
-        <v>1.137032212287776</v>
+        <v>1.390299002703518</v>
       </c>
       <c r="S13">
-        <v>1.137032212287776</v>
+        <v>1.390299002703518</v>
       </c>
       <c r="T13">
-        <v>1.014650235681033</v>
+        <v>1.098959414395848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0080378142</v>
+        <v>0.9690302955545643</v>
       </c>
       <c r="D14">
-        <v>0.006236067899999991</v>
+        <v>1.10858716510821</v>
       </c>
       <c r="E14">
-        <v>0.006236067899999991</v>
+        <v>1.10858716510821</v>
       </c>
       <c r="F14">
-        <v>-0.002792170799999996</v>
+        <v>0.7924229677633223</v>
       </c>
       <c r="G14">
-        <v>-0.002792170799999996</v>
+        <v>0.7924229677633223</v>
       </c>
       <c r="H14">
-        <v>-0.002063599</v>
+        <v>0.670501355201496</v>
       </c>
       <c r="I14">
-        <v>45.56474799999992</v>
+        <v>5.545783250667502</v>
       </c>
       <c r="J14">
-        <v>-0.005504551799999996</v>
+        <v>0.8663474969016852</v>
       </c>
       <c r="K14">
-        <v>-0.002792170799999996</v>
+        <v>0.7924229677633223</v>
       </c>
       <c r="L14">
-        <v>0.0080378142</v>
+        <v>0.9690302955545643</v>
       </c>
       <c r="M14">
-        <v>0.007136941049999995</v>
+        <v>1.038808730331387</v>
       </c>
       <c r="N14">
-        <v>0.007136941049999995</v>
+        <v>1.038808730331387</v>
       </c>
       <c r="O14">
-        <v>0.004070094366666664</v>
+        <v>0.9160396052880903</v>
       </c>
       <c r="P14">
-        <v>0.003827237099999999</v>
+        <v>0.956680142808699</v>
       </c>
       <c r="Q14">
-        <v>0.003827237099999999</v>
+        <v>0.956680142808699</v>
       </c>
       <c r="R14">
-        <v>0.002172385125</v>
+        <v>0.9156158490473547</v>
       </c>
       <c r="S14">
-        <v>0.002172385125</v>
+        <v>0.9156158490473547</v>
       </c>
       <c r="T14">
-        <v>7.594776926749987</v>
+        <v>1.658778755199463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>15.189881</v>
+        <v>0.8351927237057024</v>
       </c>
       <c r="D15">
-        <v>-0.0064341065</v>
+        <v>1.678372903941501</v>
       </c>
       <c r="E15">
-        <v>-0.0064341065</v>
+        <v>1.678372903941501</v>
       </c>
       <c r="F15">
-        <v>-0.0012290963</v>
+        <v>1.01728161075195</v>
       </c>
       <c r="G15">
-        <v>-0.0012290963</v>
+        <v>1.01728161075195</v>
       </c>
       <c r="H15">
-        <v>0.002121282</v>
+        <v>1.021635567048768</v>
       </c>
       <c r="I15">
-        <v>0.008039045599999999</v>
+        <v>0.5627965227288613</v>
       </c>
       <c r="J15">
-        <v>0.56694817</v>
+        <v>0.9726220859094149</v>
       </c>
       <c r="K15">
-        <v>-0.0012290963</v>
+        <v>1.01728161075195</v>
       </c>
       <c r="L15">
-        <v>15.189881</v>
+        <v>0.8351927237057024</v>
       </c>
       <c r="M15">
-        <v>7.59172344675</v>
+        <v>1.256782813823602</v>
       </c>
       <c r="N15">
-        <v>7.59172344675</v>
+        <v>1.256782813823602</v>
       </c>
       <c r="O15">
-        <v>5.061856058499999</v>
+        <v>1.178400398231991</v>
       </c>
       <c r="P15">
-        <v>5.060739265733333</v>
+        <v>1.176949079466385</v>
       </c>
       <c r="Q15">
-        <v>5.060739265733333</v>
+        <v>1.176949079466385</v>
       </c>
       <c r="R15">
-        <v>3.795247175225</v>
+        <v>1.137032212287776</v>
       </c>
       <c r="S15">
-        <v>3.795247175225</v>
+        <v>1.137032212287776</v>
       </c>
       <c r="T15">
-        <v>2.626554382466666</v>
+        <v>1.014650235681033</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.0012295708</v>
+        <v>0.0080378142</v>
       </c>
       <c r="D16">
-        <v>0.0030969418</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="E16">
-        <v>0.0030969418</v>
+        <v>0.006236067899999991</v>
       </c>
       <c r="F16">
-        <v>30.381976</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="G16">
-        <v>30.381976</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="H16">
-        <v>0.0025420956</v>
+        <v>-0.002063599</v>
       </c>
       <c r="I16">
-        <v>-0.0027921709</v>
+        <v>45.56474799999992</v>
       </c>
       <c r="J16">
-        <v>0.0037430372</v>
+        <v>-0.005504551799999996</v>
       </c>
       <c r="K16">
-        <v>30.381976</v>
+        <v>-0.002792170799999996</v>
       </c>
       <c r="L16">
-        <v>-0.0012295708</v>
+        <v>0.0080378142</v>
       </c>
       <c r="M16">
-        <v>0.0009336855</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="N16">
-        <v>0.0009336855</v>
+        <v>0.007136941049999995</v>
       </c>
       <c r="O16">
-        <v>0.0014698222</v>
+        <v>0.004070094366666664</v>
       </c>
       <c r="P16">
-        <v>10.12794779033333</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="Q16">
-        <v>10.12794779033333</v>
+        <v>0.003827237099999999</v>
       </c>
       <c r="R16">
-        <v>15.19145484275</v>
+        <v>0.002172385125</v>
       </c>
       <c r="S16">
-        <v>15.19145484275</v>
+        <v>0.002172385125</v>
       </c>
       <c r="T16">
-        <v>5.064556055483332</v>
+        <v>7.594776926749987</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.1185846</v>
+        <v>15.189881</v>
       </c>
       <c r="D17">
-        <v>0.003165176899999999</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="E17">
-        <v>0.003165176899999999</v>
+        <v>-0.0064341065</v>
       </c>
       <c r="F17">
-        <v>-0.0014782426</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="G17">
-        <v>-0.0014782426</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="H17">
-        <v>0.011519388</v>
+        <v>0.002121282</v>
       </c>
       <c r="I17">
-        <v>-0.0057362253</v>
+        <v>0.008039045599999999</v>
       </c>
       <c r="J17">
-        <v>0.05500227199999999</v>
+        <v>0.56694817</v>
       </c>
       <c r="K17">
-        <v>-0.0014782426</v>
+        <v>-0.0012290963</v>
       </c>
       <c r="L17">
-        <v>1.1185846</v>
+        <v>15.189881</v>
       </c>
       <c r="M17">
-        <v>0.56087488845</v>
+        <v>7.59172344675</v>
       </c>
       <c r="N17">
-        <v>0.56087488845</v>
+        <v>7.59172344675</v>
       </c>
       <c r="O17">
-        <v>0.3777563883</v>
+        <v>5.061856058499999</v>
       </c>
       <c r="P17">
-        <v>0.3734238447666667</v>
+        <v>5.060739265733333</v>
       </c>
       <c r="Q17">
-        <v>0.3734238447666667</v>
+        <v>5.060739265733333</v>
       </c>
       <c r="R17">
-        <v>0.279698322925</v>
+        <v>3.795247175225</v>
       </c>
       <c r="S17">
-        <v>0.279698322925</v>
+        <v>3.795247175225</v>
       </c>
       <c r="T17">
-        <v>0.1968428281666667</v>
+        <v>2.626554382466666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.866815715448219</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="D18">
-        <v>-0.001348055636986302</v>
+        <v>0.0030969418</v>
       </c>
       <c r="E18">
-        <v>-0.001348055636986302</v>
+        <v>0.0030969418</v>
       </c>
       <c r="F18">
-        <v>5.319488004905479</v>
+        <v>30.381976</v>
       </c>
       <c r="G18">
-        <v>5.319488004905479</v>
+        <v>30.381976</v>
       </c>
       <c r="H18">
-        <v>-0.0003479084849315068</v>
+        <v>0.0025420956</v>
       </c>
       <c r="I18">
-        <v>0.001346627909589041</v>
+        <v>-0.0027921709</v>
       </c>
       <c r="J18">
-        <v>2.66879592160548</v>
+        <v>0.0037430372</v>
       </c>
       <c r="K18">
-        <v>5.319488004905479</v>
+        <v>30.381976</v>
       </c>
       <c r="L18">
-        <v>2.866815715448219</v>
+        <v>-0.0012295708</v>
       </c>
       <c r="M18">
-        <v>1.432733829905616</v>
+        <v>0.0009336855</v>
       </c>
       <c r="N18">
-        <v>1.432733829905616</v>
+        <v>0.0009336855</v>
       </c>
       <c r="O18">
-        <v>0.9550399171087672</v>
+        <v>0.0014698222</v>
       </c>
       <c r="P18">
-        <v>2.728318554905571</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="Q18">
-        <v>2.728318554905571</v>
+        <v>10.12794779033333</v>
       </c>
       <c r="R18">
-        <v>3.376110917405548</v>
+        <v>15.19145484275</v>
       </c>
       <c r="S18">
-        <v>3.376110917405548</v>
+        <v>15.19145484275</v>
       </c>
       <c r="T18">
-        <v>1.809125050957808</v>
+        <v>5.064556055483332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.2667974827382105</v>
+        <v>1.1185846</v>
       </c>
       <c r="D19">
-        <v>0.001263986031999999</v>
+        <v>0.003165176899999999</v>
       </c>
       <c r="E19">
-        <v>0.001263986031999999</v>
+        <v>0.003165176899999999</v>
       </c>
       <c r="F19">
-        <v>2.504722204034894</v>
+        <v>-0.0014782426</v>
       </c>
       <c r="G19">
-        <v>2.504722204034894</v>
+        <v>-0.0014782426</v>
       </c>
       <c r="H19">
-        <v>0.3741772924495264</v>
+        <v>0.011519388</v>
       </c>
       <c r="I19">
-        <v>3.752783920057364</v>
+        <v>-0.0057362253</v>
       </c>
       <c r="J19">
-        <v>1.148879533968421</v>
+        <v>0.05500227199999999</v>
       </c>
       <c r="K19">
-        <v>2.504722204034894</v>
+        <v>-0.0014782426</v>
       </c>
       <c r="L19">
-        <v>0.2667974827382105</v>
+        <v>1.1185846</v>
       </c>
       <c r="M19">
-        <v>0.1340307343851053</v>
+        <v>0.56087488845</v>
       </c>
       <c r="N19">
-        <v>0.1340307343851053</v>
+        <v>0.56087488845</v>
       </c>
       <c r="O19">
-        <v>0.2140795870732456</v>
+        <v>0.3777563883</v>
       </c>
       <c r="P19">
-        <v>0.9242612242683683</v>
+        <v>0.3734238447666667</v>
       </c>
       <c r="Q19">
-        <v>0.9242612242683683</v>
+        <v>0.3734238447666667</v>
       </c>
       <c r="R19">
-        <v>1.31937646921</v>
+        <v>0.279698322925</v>
       </c>
       <c r="S19">
-        <v>1.31937646921</v>
+        <v>0.279698322925</v>
       </c>
       <c r="T19">
-        <v>1.341437403213403</v>
+        <v>0.1968428281666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.105215038871263</v>
+        <v>2.866815715448219</v>
       </c>
       <c r="D20">
-        <v>3.406934148036842</v>
+        <v>-0.001348055636986302</v>
       </c>
       <c r="E20">
-        <v>3.406934148036842</v>
+        <v>-0.001348055636986302</v>
       </c>
       <c r="F20">
-        <v>1.704390385821579</v>
+        <v>5.319488004905479</v>
       </c>
       <c r="G20">
-        <v>1.704390385821579</v>
+        <v>5.319488004905479</v>
       </c>
       <c r="H20">
-        <v>0.03203716434815789</v>
+        <v>-0.0003479084849315068</v>
       </c>
       <c r="I20">
-        <v>6.308808287847365</v>
+        <v>0.001346627909589041</v>
       </c>
       <c r="J20">
-        <v>0.1417101757157894</v>
+        <v>2.66879592160548</v>
       </c>
       <c r="K20">
-        <v>1.704390385821579</v>
+        <v>5.319488004905479</v>
       </c>
       <c r="L20">
-        <v>2.105215038871263</v>
+        <v>2.866815715448219</v>
       </c>
       <c r="M20">
-        <v>2.756074593454052</v>
+        <v>1.432733829905616</v>
       </c>
       <c r="N20">
-        <v>2.756074593454052</v>
+        <v>1.432733829905616</v>
       </c>
       <c r="O20">
-        <v>1.848062117085421</v>
+        <v>0.9550399171087672</v>
       </c>
       <c r="P20">
-        <v>2.405513190909895</v>
+        <v>2.728318554905571</v>
       </c>
       <c r="Q20">
-        <v>2.405513190909895</v>
+        <v>2.728318554905571</v>
       </c>
       <c r="R20">
-        <v>2.230232489637816</v>
+        <v>3.376110917405548</v>
       </c>
       <c r="S20">
-        <v>2.230232489637816</v>
+        <v>3.376110917405548</v>
       </c>
       <c r="T20">
-        <v>2.283182533440166</v>
+        <v>1.809125050957808</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.3279806751991264</v>
+        <v>0.2667974827382105</v>
       </c>
       <c r="D21">
-        <v>0.009564223208535151</v>
+        <v>0.001263986031999999</v>
       </c>
       <c r="E21">
-        <v>0.009564223208535151</v>
+        <v>0.001263986031999999</v>
       </c>
       <c r="F21">
-        <v>1.824526065424647</v>
+        <v>2.504722204034894</v>
       </c>
       <c r="G21">
-        <v>1.824526065424647</v>
+        <v>2.504722204034894</v>
       </c>
       <c r="H21">
-        <v>2.033072525764183</v>
+        <v>0.3741772924495264</v>
       </c>
       <c r="I21">
-        <v>0.0009583326907496712</v>
+        <v>3.752783920057364</v>
       </c>
       <c r="J21">
-        <v>1.123644033566309</v>
+        <v>1.148879533968421</v>
       </c>
       <c r="K21">
-        <v>1.824526065424647</v>
+        <v>2.504722204034894</v>
       </c>
       <c r="L21">
-        <v>0.3279806751991264</v>
+        <v>0.2667974827382105</v>
       </c>
       <c r="M21">
-        <v>0.1687724492038308</v>
+        <v>0.1340307343851053</v>
       </c>
       <c r="N21">
-        <v>0.1687724492038308</v>
+        <v>0.1340307343851053</v>
       </c>
       <c r="O21">
-        <v>0.7902058080572815</v>
+        <v>0.2140795870732456</v>
       </c>
       <c r="P21">
-        <v>0.7206903212774362</v>
+        <v>0.9242612242683683</v>
       </c>
       <c r="Q21">
-        <v>0.7206903212774362</v>
+        <v>0.9242612242683683</v>
       </c>
       <c r="R21">
-        <v>0.9966492573142389</v>
+        <v>1.31937646921</v>
       </c>
       <c r="S21">
-        <v>0.9966492573142389</v>
+        <v>1.31937646921</v>
       </c>
       <c r="T21">
-        <v>0.886624309308925</v>
+        <v>1.341437403213403</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.365474223309173</v>
+        <v>2.105215038871263</v>
       </c>
       <c r="D22">
-        <v>3.037575828329734</v>
+        <v>3.406934148036842</v>
       </c>
       <c r="E22">
-        <v>3.037575828329734</v>
+        <v>3.406934148036842</v>
       </c>
       <c r="F22">
-        <v>0.3692450097986277</v>
+        <v>1.704390385821579</v>
       </c>
       <c r="G22">
-        <v>0.3692450097986277</v>
+        <v>1.704390385821579</v>
       </c>
       <c r="H22">
-        <v>0.5177535224561548</v>
+        <v>0.03203716434815789</v>
       </c>
       <c r="I22">
-        <v>0.3699524454777166</v>
+        <v>6.308808287847365</v>
       </c>
       <c r="J22">
-        <v>0.9633165888619176</v>
+        <v>0.1417101757157894</v>
       </c>
       <c r="K22">
-        <v>0.3692450097986277</v>
+        <v>1.704390385821579</v>
       </c>
       <c r="L22">
-        <v>1.365474223309173</v>
+        <v>2.105215038871263</v>
       </c>
       <c r="M22">
-        <v>2.201525025819454</v>
+        <v>2.756074593454052</v>
       </c>
       <c r="N22">
-        <v>2.201525025819454</v>
+        <v>2.756074593454052</v>
       </c>
       <c r="O22">
-        <v>1.640267858031687</v>
+        <v>1.848062117085421</v>
       </c>
       <c r="P22">
-        <v>1.590765020479179</v>
+        <v>2.405513190909895</v>
       </c>
       <c r="Q22">
-        <v>1.590765020479179</v>
+        <v>2.405513190909895</v>
       </c>
       <c r="R22">
-        <v>1.285385017809041</v>
+        <v>2.230232489637816</v>
       </c>
       <c r="S22">
-        <v>1.285385017809041</v>
+        <v>2.230232489637816</v>
       </c>
       <c r="T22">
-        <v>1.103886269705554</v>
+        <v>2.283182533440166</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.5353173396279407</v>
+        <v>0.3279806751991264</v>
       </c>
       <c r="D23">
-        <v>0.2731877001756435</v>
+        <v>0.009564223208535151</v>
       </c>
       <c r="E23">
-        <v>0.2731877001756435</v>
+        <v>0.009564223208535151</v>
       </c>
       <c r="F23">
-        <v>1.839099416743353</v>
+        <v>1.824526065424647</v>
       </c>
       <c r="G23">
-        <v>1.839099416743353</v>
+        <v>1.824526065424647</v>
       </c>
       <c r="H23">
-        <v>1.28050112250611</v>
+        <v>2.033072525764183</v>
       </c>
       <c r="I23">
-        <v>0.001005896292277912</v>
+        <v>0.0009583326907496712</v>
       </c>
       <c r="J23">
-        <v>1.076101711066956</v>
+        <v>1.123644033566309</v>
       </c>
       <c r="K23">
-        <v>1.839099416743353</v>
+        <v>1.824526065424647</v>
       </c>
       <c r="L23">
-        <v>0.5353173396279407</v>
+        <v>0.3279806751991264</v>
       </c>
       <c r="M23">
-        <v>0.4042525199017921</v>
+        <v>0.1687724492038308</v>
       </c>
       <c r="N23">
-        <v>0.4042525199017921</v>
+        <v>0.1687724492038308</v>
       </c>
       <c r="O23">
-        <v>0.6963353874365646</v>
+        <v>0.7902058080572815</v>
       </c>
       <c r="P23">
-        <v>0.8825348188489791</v>
+        <v>0.7206903212774362</v>
       </c>
       <c r="Q23">
-        <v>0.8825348188489791</v>
+        <v>0.7206903212774362</v>
       </c>
       <c r="R23">
-        <v>1.121675968322573</v>
+        <v>0.9966492573142389</v>
       </c>
       <c r="S23">
-        <v>1.121675968322573</v>
+        <v>0.9966492573142389</v>
       </c>
       <c r="T23">
-        <v>0.8342021977353801</v>
+        <v>0.886624309308925</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.255728795392275</v>
+        <v>1.365474223309173</v>
       </c>
       <c r="D24">
-        <v>1.598615370252646</v>
+        <v>3.037575828329734</v>
       </c>
       <c r="E24">
-        <v>1.598615370252646</v>
+        <v>3.037575828329734</v>
       </c>
       <c r="F24">
-        <v>0.9996281589042396</v>
+        <v>0.3692450097986277</v>
       </c>
       <c r="G24">
-        <v>0.9996281589042396</v>
+        <v>0.3692450097986277</v>
       </c>
       <c r="H24">
-        <v>0.6970805916650487</v>
+        <v>0.5177535224561548</v>
       </c>
       <c r="I24">
-        <v>0.4158354810641348</v>
+        <v>0.3699524454777166</v>
       </c>
       <c r="J24">
-        <v>1.063608608492982</v>
+        <v>0.9633165888619176</v>
       </c>
       <c r="K24">
-        <v>0.9996281589042396</v>
+        <v>0.3692450097986277</v>
       </c>
       <c r="L24">
-        <v>1.255728795392275</v>
+        <v>1.365474223309173</v>
       </c>
       <c r="M24">
-        <v>1.427172082822461</v>
+        <v>2.201525025819454</v>
       </c>
       <c r="N24">
-        <v>1.427172082822461</v>
+        <v>2.201525025819454</v>
       </c>
       <c r="O24">
-        <v>1.183808252436657</v>
+        <v>1.640267858031687</v>
       </c>
       <c r="P24">
-        <v>1.284657441516387</v>
+        <v>1.590765020479179</v>
       </c>
       <c r="Q24">
-        <v>1.284657441516387</v>
+        <v>1.590765020479179</v>
       </c>
       <c r="R24">
-        <v>1.21340012086335</v>
+        <v>1.285385017809041</v>
       </c>
       <c r="S24">
-        <v>1.21340012086335</v>
+        <v>1.285385017809041</v>
       </c>
       <c r="T24">
-        <v>1.005082834295221</v>
+        <v>1.103886269705554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.6840436776613265</v>
+        <v>0.5353173396279407</v>
       </c>
       <c r="D25">
-        <v>0.9200804871536474</v>
+        <v>0.2731877001756435</v>
       </c>
       <c r="E25">
-        <v>0.9200804871536474</v>
+        <v>0.2731877001756435</v>
       </c>
       <c r="F25">
-        <v>0.3628513711394295</v>
+        <v>1.839099416743353</v>
       </c>
       <c r="G25">
-        <v>0.3628513711394295</v>
+        <v>1.839099416743353</v>
       </c>
       <c r="H25">
-        <v>1.655224724001139</v>
+        <v>1.28050112250611</v>
       </c>
       <c r="I25">
-        <v>0.0007741736952879507</v>
+        <v>0.001005896292277912</v>
       </c>
       <c r="J25">
-        <v>0.7786431169962688</v>
+        <v>1.076101711066956</v>
       </c>
       <c r="K25">
-        <v>0.3628513711394295</v>
+        <v>1.839099416743353</v>
       </c>
       <c r="L25">
-        <v>0.6840436776613265</v>
+        <v>0.5353173396279407</v>
       </c>
       <c r="M25">
-        <v>0.8020620824074869</v>
+        <v>0.4042525199017921</v>
       </c>
       <c r="N25">
-        <v>0.8020620824074869</v>
+        <v>0.4042525199017921</v>
       </c>
       <c r="O25">
-        <v>1.086449629605371</v>
+        <v>0.6963353874365646</v>
       </c>
       <c r="P25">
-        <v>0.6556585119848011</v>
+        <v>0.8825348188489791</v>
       </c>
       <c r="Q25">
-        <v>0.6556585119848011</v>
+        <v>0.8825348188489791</v>
       </c>
       <c r="R25">
-        <v>0.5824567267734582</v>
+        <v>1.121675968322573</v>
       </c>
       <c r="S25">
-        <v>0.5824567267734582</v>
+        <v>1.121675968322573</v>
       </c>
       <c r="T25">
-        <v>0.7336029251078497</v>
+        <v>0.8342021977353801</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.219085589634244</v>
+        <v>1.255728795392275</v>
       </c>
       <c r="D26">
-        <v>0.9183225674123235</v>
+        <v>1.598615370252646</v>
       </c>
       <c r="E26">
-        <v>0.9183225674123235</v>
+        <v>1.598615370252646</v>
       </c>
       <c r="F26">
-        <v>0.3944422404019887</v>
+        <v>0.9996281589042396</v>
       </c>
       <c r="G26">
-        <v>0.3944422404019887</v>
+        <v>0.9996281589042396</v>
       </c>
       <c r="H26">
-        <v>1.105831862761006</v>
+        <v>0.6970805916650487</v>
       </c>
       <c r="I26">
-        <v>0.4993208193803643</v>
+        <v>0.4158354810641348</v>
       </c>
       <c r="J26">
-        <v>0.6052202324906033</v>
+        <v>1.063608608492982</v>
       </c>
       <c r="K26">
-        <v>0.3944422404019887</v>
+        <v>0.9996281589042396</v>
       </c>
       <c r="L26">
-        <v>1.219085589634244</v>
+        <v>1.255728795392275</v>
       </c>
       <c r="M26">
-        <v>1.068704078523284</v>
+        <v>1.427172082822461</v>
       </c>
       <c r="N26">
-        <v>1.068704078523284</v>
+        <v>1.427172082822461</v>
       </c>
       <c r="O26">
-        <v>1.081080006602524</v>
+        <v>1.183808252436657</v>
       </c>
       <c r="P26">
-        <v>0.8439501324828521</v>
+        <v>1.284657441516387</v>
       </c>
       <c r="Q26">
-        <v>0.8439501324828521</v>
+        <v>1.284657441516387</v>
       </c>
       <c r="R26">
-        <v>0.7315731594626362</v>
+        <v>1.21340012086335</v>
       </c>
       <c r="S26">
-        <v>0.7315731594626362</v>
+        <v>1.21340012086335</v>
       </c>
       <c r="T26">
-        <v>0.7903705520134215</v>
+        <v>1.005082834295221</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.2736435447542511</v>
+        <v>0.6840436776613265</v>
       </c>
       <c r="D27">
-        <v>0.006185247811692524</v>
+        <v>0.9200804871536474</v>
       </c>
       <c r="E27">
-        <v>0.006185247811692524</v>
+        <v>0.9200804871536474</v>
       </c>
       <c r="F27">
-        <v>1.234476484103664</v>
+        <v>0.3628513711394295</v>
       </c>
       <c r="G27">
-        <v>1.234476484103664</v>
+        <v>0.3628513711394295</v>
       </c>
       <c r="H27">
-        <v>1.684837296811535</v>
+        <v>1.655224724001139</v>
       </c>
       <c r="I27">
-        <v>5.329757293588385</v>
+        <v>0.0007741736952879507</v>
       </c>
       <c r="J27">
-        <v>0.649220902073655</v>
+        <v>0.7786431169962688</v>
       </c>
       <c r="K27">
-        <v>1.234476484103664</v>
+        <v>0.3628513711394295</v>
       </c>
       <c r="L27">
-        <v>0.2736435447542511</v>
+        <v>0.6840436776613265</v>
       </c>
       <c r="M27">
-        <v>0.1399143962829718</v>
+        <v>0.8020620824074869</v>
       </c>
       <c r="N27">
-        <v>0.1399143962829718</v>
+        <v>0.8020620824074869</v>
       </c>
       <c r="O27">
-        <v>0.6548886964591597</v>
+        <v>1.086449629605371</v>
       </c>
       <c r="P27">
-        <v>0.5047684255565358</v>
+        <v>0.6556585119848011</v>
       </c>
       <c r="Q27">
-        <v>0.5047684255565359</v>
+        <v>0.6556585119848011</v>
       </c>
       <c r="R27">
-        <v>0.6871954401933179</v>
+        <v>0.5824567267734582</v>
       </c>
       <c r="S27">
-        <v>0.6871954401933179</v>
+        <v>0.5824567267734582</v>
       </c>
       <c r="T27">
-        <v>1.529686794857197</v>
+        <v>0.7336029251078497</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1429945048897298</v>
+        <v>1.219085589634244</v>
       </c>
       <c r="D28">
-        <v>1.393167664550069</v>
+        <v>0.9183225674123235</v>
       </c>
       <c r="E28">
-        <v>1.393167664550069</v>
+        <v>0.9183225674123235</v>
       </c>
       <c r="F28">
-        <v>2.097950431515033</v>
+        <v>0.3944422404019887</v>
       </c>
       <c r="G28">
-        <v>2.097950431515033</v>
+        <v>0.3944422404019887</v>
       </c>
       <c r="H28">
-        <v>0.06195448557607755</v>
+        <v>1.105831862761006</v>
       </c>
       <c r="I28">
-        <v>1.454077748140057</v>
+        <v>0.4993208193803643</v>
       </c>
       <c r="J28">
-        <v>0.4047026339123727</v>
+        <v>0.6052202324906033</v>
       </c>
       <c r="K28">
-        <v>2.097950431515033</v>
+        <v>0.3944422404019887</v>
       </c>
       <c r="L28">
-        <v>0.1429945048897298</v>
+        <v>1.219085589634244</v>
       </c>
       <c r="M28">
-        <v>0.7680810847198994</v>
+        <v>1.068704078523284</v>
       </c>
       <c r="N28">
-        <v>0.7680810847198994</v>
+        <v>1.068704078523284</v>
       </c>
       <c r="O28">
-        <v>0.5327055516719589</v>
+        <v>1.081080006602524</v>
       </c>
       <c r="P28">
-        <v>1.211370866984944</v>
+        <v>0.8439501324828521</v>
       </c>
       <c r="Q28">
-        <v>1.211370866984944</v>
+        <v>0.8439501324828521</v>
       </c>
       <c r="R28">
-        <v>1.433015758117466</v>
+        <v>0.7315731594626362</v>
       </c>
       <c r="S28">
-        <v>1.433015758117466</v>
+        <v>0.7315731594626362</v>
       </c>
       <c r="T28">
-        <v>0.9258079114305565</v>
+        <v>0.7903705520134215</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.2736435447542511</v>
+      </c>
+      <c r="D29">
+        <v>0.006185247811692524</v>
+      </c>
+      <c r="E29">
+        <v>0.006185247811692524</v>
+      </c>
+      <c r="F29">
+        <v>1.234476484103664</v>
+      </c>
+      <c r="G29">
+        <v>1.234476484103664</v>
+      </c>
+      <c r="H29">
+        <v>1.684837296811535</v>
+      </c>
+      <c r="I29">
+        <v>5.329757293588385</v>
+      </c>
+      <c r="J29">
+        <v>0.649220902073655</v>
+      </c>
+      <c r="K29">
+        <v>1.234476484103664</v>
+      </c>
+      <c r="L29">
+        <v>0.2736435447542511</v>
+      </c>
+      <c r="M29">
+        <v>0.1399143962829718</v>
+      </c>
+      <c r="N29">
+        <v>0.1399143962829718</v>
+      </c>
+      <c r="O29">
+        <v>0.6548886964591597</v>
+      </c>
+      <c r="P29">
+        <v>0.5047684255565358</v>
+      </c>
+      <c r="Q29">
+        <v>0.5047684255565359</v>
+      </c>
+      <c r="R29">
+        <v>0.6871954401933179</v>
+      </c>
+      <c r="S29">
+        <v>0.6871954401933179</v>
+      </c>
+      <c r="T29">
+        <v>1.529686794857197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.1429945048897298</v>
+      </c>
+      <c r="D30">
+        <v>1.393167664550069</v>
+      </c>
+      <c r="E30">
+        <v>1.393167664550069</v>
+      </c>
+      <c r="F30">
+        <v>2.097950431515033</v>
+      </c>
+      <c r="G30">
+        <v>2.097950431515033</v>
+      </c>
+      <c r="H30">
+        <v>0.06195448557607755</v>
+      </c>
+      <c r="I30">
+        <v>1.454077748140057</v>
+      </c>
+      <c r="J30">
+        <v>0.4047026339123727</v>
+      </c>
+      <c r="K30">
+        <v>2.097950431515033</v>
+      </c>
+      <c r="L30">
+        <v>0.1429945048897298</v>
+      </c>
+      <c r="M30">
+        <v>0.7680810847198994</v>
+      </c>
+      <c r="N30">
+        <v>0.7680810847198994</v>
+      </c>
+      <c r="O30">
+        <v>0.5327055516719589</v>
+      </c>
+      <c r="P30">
+        <v>1.211370866984944</v>
+      </c>
+      <c r="Q30">
+        <v>1.211370866984944</v>
+      </c>
+      <c r="R30">
+        <v>1.433015758117466</v>
+      </c>
+      <c r="S30">
+        <v>1.433015758117466</v>
+      </c>
+      <c r="T30">
+        <v>0.9258079114305565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.3168520110703535</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.004659716106946445</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.004659716106946445</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>3.813072930177159</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>3.813072930177159</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.09956031504369223</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>-0.001530820210306131</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.04351720067976599</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>3.813072930177159</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.3168520110703535</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.16075586358865</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.16075586358865</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.1403573474069974</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.37819488578482</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.37819488578482</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.986914396882904</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.986914396882904</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.7126885588112685</v>
       </c>
     </row>
